--- a/BackTest/2020-01-11 BackTest BHP.xlsx
+++ b/BackTest/2020-01-11 BackTest BHP.xlsx
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -10776,13 +10776,17 @@
         <v>953.65</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>950</v>
+      </c>
+      <c r="K297" t="n">
+        <v>950</v>
+      </c>
       <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
@@ -10811,14 +10815,22 @@
         <v>953.6</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>950</v>
+      </c>
+      <c r="K298" t="n">
+        <v>950</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -10846,14 +10858,22 @@
         <v>953.5333333333333</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>950</v>
+      </c>
+      <c r="K299" t="n">
+        <v>950</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -10881,13 +10901,17 @@
         <v>953.45</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>950</v>
+      </c>
+      <c r="K300" t="n">
+        <v>950</v>
+      </c>
       <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
@@ -10916,14 +10940,22 @@
         <v>953.3333333333334</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>950</v>
+      </c>
+      <c r="K301" t="n">
+        <v>950</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -10951,14 +10983,22 @@
         <v>953.25</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>949</v>
+      </c>
+      <c r="K302" t="n">
+        <v>950</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11031,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="J304" t="n">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="K304" t="n">
         <v>951</v>
@@ -11068,12 +11108,14 @@
         <v>952.9</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>949</v>
+      </c>
       <c r="K305" t="n">
         <v>951</v>
       </c>
@@ -11154,7 +11196,7 @@
         <v>0</v>
       </c>
       <c r="J307" t="n">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="K307" t="n">
         <v>949</v>
@@ -11191,14 +11233,12 @@
         <v>952.6166666666667</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>951</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="n">
         <v>949</v>
       </c>
@@ -11273,14 +11313,12 @@
         <v>952.45</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>951</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="n">
         <v>951</v>
       </c>
@@ -11316,14 +11354,12 @@
         <v>952.3666666666667</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="n">
-        <v>951</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="n">
         <v>951</v>
       </c>
@@ -11359,17 +11395,13 @@
         <v>952.2833333333333</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>951</v>
-      </c>
-      <c r="K312" t="n">
-        <v>951</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
@@ -11404,14 +11436,8 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>951</v>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11445,14 +11471,8 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>951</v>
-      </c>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11480,17 +11500,13 @@
         <v>951.9333333333333</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
-        <v>949</v>
-      </c>
-      <c r="K315" t="n">
-        <v>949</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
@@ -11519,22 +11535,14 @@
         <v>951.85</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="n">
-        <v>949</v>
-      </c>
-      <c r="K316" t="n">
-        <v>949</v>
-      </c>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11562,22 +11570,14 @@
         <v>951.7333333333333</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>949</v>
-      </c>
-      <c r="K317" t="n">
-        <v>949</v>
-      </c>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11605,17 +11605,13 @@
         <v>951.65</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="n">
-        <v>949</v>
-      </c>
-      <c r="K318" t="n">
-        <v>949</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr"/>
       <c r="M318" t="n">
         <v>1</v>
@@ -11644,22 +11640,14 @@
         <v>951.5666666666667</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="n">
-        <v>949</v>
-      </c>
-      <c r="K319" t="n">
-        <v>949</v>
-      </c>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11687,22 +11675,14 @@
         <v>951.45</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="n">
-        <v>947</v>
-      </c>
-      <c r="K320" t="n">
-        <v>949</v>
-      </c>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr"/>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -11730,17 +11710,13 @@
         <v>951.3333333333334</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>947</v>
-      </c>
-      <c r="K321" t="n">
-        <v>947</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr"/>
       <c r="M321" t="n">
         <v>1</v>
@@ -11769,22 +11745,14 @@
         <v>951.2166666666667</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="n">
-        <v>947</v>
-      </c>
-      <c r="K322" t="n">
-        <v>947</v>
-      </c>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="inlineStr"/>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -11812,22 +11780,14 @@
         <v>951.0666666666667</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
-        <v>947</v>
-      </c>
-      <c r="K323" t="n">
-        <v>947</v>
-      </c>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr"/>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -11855,17 +11815,13 @@
         <v>950.9666666666667</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>947</v>
-      </c>
-      <c r="K324" t="n">
-        <v>947</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr"/>
       <c r="M324" t="n">
         <v>1</v>
@@ -11894,22 +11850,14 @@
         <v>950.85</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>947</v>
-      </c>
-      <c r="K325" t="n">
-        <v>947</v>
-      </c>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="inlineStr"/>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -11937,22 +11885,14 @@
         <v>950.7333333333333</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>949</v>
-      </c>
-      <c r="K326" t="n">
-        <v>947</v>
-      </c>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -11980,17 +11920,13 @@
         <v>950.65</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>949</v>
-      </c>
-      <c r="K327" t="n">
-        <v>949</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr"/>
       <c r="M327" t="n">
         <v>1</v>
@@ -12019,22 +11955,14 @@
         <v>950.5666666666667</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>949</v>
-      </c>
-      <c r="K328" t="n">
-        <v>949</v>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="inlineStr"/>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12062,22 +11990,14 @@
         <v>950.4833333333333</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>949</v>
-      </c>
-      <c r="K329" t="n">
-        <v>949</v>
-      </c>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="inlineStr"/>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12105,22 +12025,14 @@
         <v>950.4333333333333</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>947</v>
-      </c>
-      <c r="K330" t="n">
-        <v>949</v>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="inlineStr"/>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12148,22 +12060,14 @@
         <v>950.3833333333333</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
-        <v>949</v>
-      </c>
-      <c r="K331" t="n">
-        <v>949</v>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="inlineStr"/>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12191,22 +12095,14 @@
         <v>950.25</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="n">
-        <v>947</v>
-      </c>
-      <c r="K332" t="n">
-        <v>949</v>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="inlineStr"/>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12234,22 +12130,14 @@
         <v>950.1333333333333</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="n">
-        <v>947</v>
-      </c>
-      <c r="K333" t="n">
-        <v>949</v>
-      </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="inlineStr"/>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12277,22 +12165,14 @@
         <v>949.9833333333333</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
-        <v>945</v>
-      </c>
-      <c r="K334" t="n">
-        <v>949</v>
-      </c>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="inlineStr"/>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12320,22 +12200,14 @@
         <v>949.8666666666667</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="J335" t="n">
-        <v>945</v>
-      </c>
-      <c r="K335" t="n">
-        <v>949</v>
-      </c>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="inlineStr"/>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12363,22 +12235,14 @@
         <v>949.7833333333333</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>947</v>
-      </c>
-      <c r="K336" t="n">
-        <v>949</v>
-      </c>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="inlineStr"/>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12406,22 +12270,14 @@
         <v>949.7</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
-        <v>947</v>
-      </c>
-      <c r="K337" t="n">
-        <v>949</v>
-      </c>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="inlineStr"/>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12449,22 +12305,14 @@
         <v>949.6166666666667</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>947</v>
-      </c>
-      <c r="K338" t="n">
-        <v>949</v>
-      </c>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="inlineStr"/>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12492,22 +12340,14 @@
         <v>949.5666666666667</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
       </c>
-      <c r="J339" t="n">
-        <v>947</v>
-      </c>
-      <c r="K339" t="n">
-        <v>949</v>
-      </c>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="inlineStr"/>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12535,22 +12375,14 @@
         <v>949.5</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
       </c>
-      <c r="J340" t="n">
-        <v>949</v>
-      </c>
-      <c r="K340" t="n">
-        <v>949</v>
-      </c>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="inlineStr"/>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12578,22 +12410,14 @@
         <v>949.45</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="n">
-        <v>949</v>
-      </c>
-      <c r="K341" t="n">
-        <v>949</v>
-      </c>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="inlineStr"/>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12621,22 +12445,14 @@
         <v>949.3833333333333</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="n">
-        <v>949</v>
-      </c>
-      <c r="K342" t="n">
-        <v>949</v>
-      </c>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="inlineStr"/>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12664,22 +12480,14 @@
         <v>949.3666666666667</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="n">
-        <v>951</v>
-      </c>
-      <c r="K343" t="n">
-        <v>949</v>
-      </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="inlineStr"/>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12707,22 +12515,14 @@
         <v>949.3166666666667</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>951</v>
-      </c>
-      <c r="K344" t="n">
-        <v>949</v>
-      </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="inlineStr"/>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12750,22 +12550,14 @@
         <v>949.3333333333334</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="n">
-        <v>951</v>
-      </c>
-      <c r="K345" t="n">
-        <v>949</v>
-      </c>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="inlineStr"/>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12793,22 +12585,14 @@
         <v>949.3166666666667</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>951</v>
-      </c>
-      <c r="K346" t="n">
-        <v>949</v>
-      </c>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="inlineStr"/>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -12836,22 +12620,14 @@
         <v>949.2833333333333</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>951</v>
-      </c>
-      <c r="K347" t="n">
-        <v>949</v>
-      </c>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="inlineStr"/>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -12879,22 +12655,14 @@
         <v>949.2666666666667</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>951</v>
-      </c>
-      <c r="K348" t="n">
-        <v>949</v>
-      </c>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="inlineStr"/>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -12922,22 +12690,14 @@
         <v>949.25</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>951</v>
-      </c>
-      <c r="K349" t="n">
-        <v>949</v>
-      </c>
-      <c r="L349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="inlineStr"/>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -12965,22 +12725,14 @@
         <v>949.2333333333333</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="n">
-        <v>951</v>
-      </c>
-      <c r="K350" t="n">
-        <v>949</v>
-      </c>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="inlineStr"/>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13008,22 +12760,14 @@
         <v>949.2833333333333</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>953</v>
-      </c>
-      <c r="K351" t="n">
-        <v>949</v>
-      </c>
-      <c r="L351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="inlineStr"/>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13051,22 +12795,14 @@
         <v>949.3333333333334</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="n">
-        <v>953</v>
-      </c>
-      <c r="K352" t="n">
-        <v>949</v>
-      </c>
-      <c r="L352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="inlineStr"/>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13094,22 +12830,14 @@
         <v>949.3833333333333</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="n">
-        <v>953</v>
-      </c>
-      <c r="K353" t="n">
-        <v>949</v>
-      </c>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="inlineStr"/>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13143,14 +12871,8 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="n">
-        <v>949</v>
-      </c>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="inlineStr"/>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13184,14 +12906,8 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="n">
-        <v>949</v>
-      </c>
-      <c r="L355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="inlineStr"/>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13225,14 +12941,8 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="n">
-        <v>949</v>
-      </c>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="inlineStr"/>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13266,14 +12976,8 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="n">
-        <v>949</v>
-      </c>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="inlineStr"/>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13307,14 +13011,8 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="n">
-        <v>949</v>
-      </c>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="inlineStr"/>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13348,14 +13046,8 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="n">
-        <v>949</v>
-      </c>
-      <c r="L359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="inlineStr"/>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13389,14 +13081,8 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="n">
-        <v>949</v>
-      </c>
-      <c r="L360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="inlineStr"/>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13424,22 +13110,14 @@
         <v>949.25</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="n">
-        <v>947</v>
-      </c>
-      <c r="K361" t="n">
-        <v>949</v>
-      </c>
-      <c r="L361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="inlineStr"/>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13467,22 +13145,14 @@
         <v>949.2166666666667</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="n">
-        <v>949</v>
-      </c>
-      <c r="K362" t="n">
-        <v>949</v>
-      </c>
-      <c r="L362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="inlineStr"/>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13510,22 +13180,14 @@
         <v>949.15</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="n">
-        <v>949</v>
-      </c>
-      <c r="K363" t="n">
-        <v>949</v>
-      </c>
-      <c r="L363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="inlineStr"/>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13553,22 +13215,14 @@
         <v>949.15</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="n">
-        <v>949</v>
-      </c>
-      <c r="K364" t="n">
-        <v>949</v>
-      </c>
-      <c r="L364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="inlineStr"/>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13596,22 +13250,14 @@
         <v>949.1166666666667</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="n">
-        <v>947</v>
-      </c>
-      <c r="K365" t="n">
-        <v>949</v>
-      </c>
-      <c r="L365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="inlineStr"/>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13639,22 +13285,14 @@
         <v>949.0833333333334</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="n">
-        <v>947</v>
-      </c>
-      <c r="K366" t="n">
-        <v>949</v>
-      </c>
-      <c r="L366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="inlineStr"/>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13682,22 +13320,14 @@
         <v>949.0166666666667</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
       </c>
-      <c r="J367" t="n">
-        <v>947</v>
-      </c>
-      <c r="K367" t="n">
-        <v>949</v>
-      </c>
-      <c r="L367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="inlineStr"/>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13725,22 +13355,14 @@
         <v>948.95</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
-      <c r="J368" t="n">
-        <v>947</v>
-      </c>
-      <c r="K368" t="n">
-        <v>949</v>
-      </c>
-      <c r="L368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="inlineStr"/>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13768,22 +13390,14 @@
         <v>948.8833333333333</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
-      <c r="J369" t="n">
-        <v>947</v>
-      </c>
-      <c r="K369" t="n">
-        <v>949</v>
-      </c>
-      <c r="L369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="inlineStr"/>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13811,22 +13425,14 @@
         <v>948.8166666666667</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="n">
-        <v>947</v>
-      </c>
-      <c r="K370" t="n">
-        <v>949</v>
-      </c>
-      <c r="L370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="inlineStr"/>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13854,22 +13460,14 @@
         <v>948.75</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="n">
-        <v>947</v>
-      </c>
-      <c r="K371" t="n">
-        <v>949</v>
-      </c>
-      <c r="L371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="inlineStr"/>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -13897,22 +13495,14 @@
         <v>948.65</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="n">
-        <v>947</v>
-      </c>
-      <c r="K372" t="n">
-        <v>949</v>
-      </c>
-      <c r="L372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="inlineStr"/>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -13940,22 +13530,14 @@
         <v>948.65</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="n">
-        <v>947</v>
-      </c>
-      <c r="K373" t="n">
-        <v>949</v>
-      </c>
-      <c r="L373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="inlineStr"/>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -13983,22 +13565,14 @@
         <v>948.65</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="n">
-        <v>949</v>
-      </c>
-      <c r="K374" t="n">
-        <v>949</v>
-      </c>
-      <c r="L374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="inlineStr"/>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14026,22 +13600,14 @@
         <v>948.65</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
-      <c r="J375" t="n">
-        <v>949</v>
-      </c>
-      <c r="K375" t="n">
-        <v>949</v>
-      </c>
-      <c r="L375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="inlineStr"/>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14069,22 +13635,14 @@
         <v>948.65</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
       </c>
-      <c r="J376" t="n">
-        <v>949</v>
-      </c>
-      <c r="K376" t="n">
-        <v>949</v>
-      </c>
-      <c r="L376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="inlineStr"/>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14112,22 +13670,14 @@
         <v>948.65</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
       </c>
-      <c r="J377" t="n">
-        <v>949</v>
-      </c>
-      <c r="K377" t="n">
-        <v>949</v>
-      </c>
-      <c r="L377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="inlineStr"/>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14155,22 +13705,14 @@
         <v>948.65</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
       </c>
-      <c r="J378" t="n">
-        <v>947</v>
-      </c>
-      <c r="K378" t="n">
-        <v>949</v>
-      </c>
-      <c r="L378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="inlineStr"/>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14198,22 +13740,14 @@
         <v>948.65</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
       </c>
-      <c r="J379" t="n">
-        <v>949</v>
-      </c>
-      <c r="K379" t="n">
-        <v>949</v>
-      </c>
-      <c r="L379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="inlineStr"/>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14241,22 +13775,14 @@
         <v>948.7166666666667</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
       </c>
-      <c r="J380" t="n">
-        <v>949</v>
-      </c>
-      <c r="K380" t="n">
-        <v>949</v>
-      </c>
-      <c r="L380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
+      <c r="L380" t="inlineStr"/>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14284,22 +13810,14 @@
         <v>948.7833333333333</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
       </c>
-      <c r="J381" t="n">
-        <v>951</v>
-      </c>
-      <c r="K381" t="n">
-        <v>949</v>
-      </c>
-      <c r="L381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="inlineStr"/>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14327,22 +13845,14 @@
         <v>948.8166666666667</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
       </c>
-      <c r="J382" t="n">
-        <v>949</v>
-      </c>
-      <c r="K382" t="n">
-        <v>949</v>
-      </c>
-      <c r="L382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="inlineStr"/>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14370,22 +13880,14 @@
         <v>948.8833333333333</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
       </c>
-      <c r="J383" t="n">
-        <v>951</v>
-      </c>
-      <c r="K383" t="n">
-        <v>949</v>
-      </c>
-      <c r="L383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="inlineStr"/>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14413,22 +13915,14 @@
         <v>948.95</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
       </c>
-      <c r="J384" t="n">
-        <v>951</v>
-      </c>
-      <c r="K384" t="n">
-        <v>949</v>
-      </c>
-      <c r="L384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
+      <c r="L384" t="inlineStr"/>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14456,22 +13950,14 @@
         <v>948.9833333333333</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
       </c>
-      <c r="J385" t="n">
-        <v>949</v>
-      </c>
-      <c r="K385" t="n">
-        <v>949</v>
-      </c>
-      <c r="L385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
+      <c r="L385" t="inlineStr"/>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14499,22 +13985,14 @@
         <v>948.9833333333333</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
       </c>
-      <c r="J386" t="n">
-        <v>949</v>
-      </c>
-      <c r="K386" t="n">
-        <v>949</v>
-      </c>
-      <c r="L386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="inlineStr"/>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14542,22 +14020,14 @@
         <v>948.9833333333333</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
       </c>
-      <c r="J387" t="n">
-        <v>949</v>
-      </c>
-      <c r="K387" t="n">
-        <v>949</v>
-      </c>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
+      <c r="L387" t="inlineStr"/>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14585,22 +14055,14 @@
         <v>948.9833333333333</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
       </c>
-      <c r="J388" t="n">
-        <v>949</v>
-      </c>
-      <c r="K388" t="n">
-        <v>949</v>
-      </c>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
+      <c r="L388" t="inlineStr"/>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14628,22 +14090,14 @@
         <v>949.0166666666667</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
-      <c r="J389" t="n">
-        <v>951</v>
-      </c>
-      <c r="K389" t="n">
-        <v>949</v>
-      </c>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
+      <c r="L389" t="inlineStr"/>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14671,22 +14125,14 @@
         <v>949.05</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
-      <c r="J390" t="n">
-        <v>951</v>
-      </c>
-      <c r="K390" t="n">
-        <v>949</v>
-      </c>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
+      <c r="L390" t="inlineStr"/>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14714,22 +14160,14 @@
         <v>949.0833333333334</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
-      <c r="J391" t="n">
-        <v>951</v>
-      </c>
-      <c r="K391" t="n">
-        <v>949</v>
-      </c>
-      <c r="L391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="inlineStr"/>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14757,22 +14195,14 @@
         <v>949.15</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
       </c>
-      <c r="J392" t="n">
-        <v>951</v>
-      </c>
-      <c r="K392" t="n">
-        <v>949</v>
-      </c>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="inlineStr"/>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14800,22 +14230,14 @@
         <v>949.1833333333333</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
       </c>
-      <c r="J393" t="n">
-        <v>949</v>
-      </c>
-      <c r="K393" t="n">
-        <v>949</v>
-      </c>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
+      <c r="L393" t="inlineStr"/>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14843,22 +14265,14 @@
         <v>949.35</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
       </c>
-      <c r="J394" t="n">
-        <v>951</v>
-      </c>
-      <c r="K394" t="n">
-        <v>949</v>
-      </c>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
+      <c r="L394" t="inlineStr"/>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14886,22 +14300,14 @@
         <v>949.4666666666667</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
       </c>
-      <c r="J395" t="n">
-        <v>954</v>
-      </c>
-      <c r="K395" t="n">
-        <v>949</v>
-      </c>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
+      <c r="L395" t="inlineStr"/>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14935,14 +14341,8 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="n">
-        <v>949</v>
-      </c>
-      <c r="L396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="inlineStr"/>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14976,14 +14376,8 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="n">
-        <v>949</v>
-      </c>
-      <c r="L397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="inlineStr"/>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -15017,14 +14411,8 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="n">
-        <v>949</v>
-      </c>
-      <c r="L398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="inlineStr"/>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -15058,14 +14446,8 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="n">
-        <v>949</v>
-      </c>
-      <c r="L399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="inlineStr"/>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15099,14 +14481,8 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="n">
-        <v>949</v>
-      </c>
-      <c r="L400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
+      <c r="L400" t="inlineStr"/>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15140,14 +14516,8 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="n">
-        <v>949</v>
-      </c>
-      <c r="L401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
+      <c r="L401" t="inlineStr"/>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15181,14 +14551,8 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="n">
-        <v>949</v>
-      </c>
-      <c r="L402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="inlineStr"/>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15222,14 +14586,8 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="n">
-        <v>949</v>
-      </c>
-      <c r="L403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
+      <c r="L403" t="inlineStr"/>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15263,14 +14621,8 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="n">
-        <v>949</v>
-      </c>
-      <c r="L404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
+      <c r="L404" t="inlineStr"/>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15304,14 +14656,8 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="n">
-        <v>949</v>
-      </c>
-      <c r="L405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
+      <c r="L405" t="inlineStr"/>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15345,14 +14691,8 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="n">
-        <v>949</v>
-      </c>
-      <c r="L406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
+      <c r="L406" t="inlineStr"/>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -15386,14 +14726,8 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="n">
-        <v>949</v>
-      </c>
-      <c r="L407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
+      <c r="L407" t="inlineStr"/>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15427,14 +14761,8 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="n">
-        <v>949</v>
-      </c>
-      <c r="L408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
+      <c r="L408" t="inlineStr"/>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15468,14 +14796,8 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="n">
-        <v>949</v>
-      </c>
-      <c r="L409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
+      <c r="L409" t="inlineStr"/>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15509,14 +14831,8 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="n">
-        <v>949</v>
-      </c>
-      <c r="L410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="inlineStr"/>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15550,14 +14866,8 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="n">
-        <v>949</v>
-      </c>
-      <c r="L411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="inlineStr"/>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15591,14 +14901,8 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="n">
-        <v>949</v>
-      </c>
-      <c r="L412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="inlineStr"/>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15632,14 +14936,8 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="n">
-        <v>949</v>
-      </c>
-      <c r="L413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
+      <c r="L413" t="inlineStr"/>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15673,14 +14971,8 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="n">
-        <v>949</v>
-      </c>
-      <c r="L414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
+      <c r="L414" t="inlineStr"/>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15714,14 +15006,8 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="n">
-        <v>949</v>
-      </c>
-      <c r="L415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
+      <c r="L415" t="inlineStr"/>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15755,14 +15041,8 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="n">
-        <v>949</v>
-      </c>
-      <c r="L416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
+      <c r="L416" t="inlineStr"/>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15796,14 +15076,8 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="n">
-        <v>949</v>
-      </c>
-      <c r="L417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="inlineStr"/>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15837,14 +15111,8 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="n">
-        <v>949</v>
-      </c>
-      <c r="L418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
+      <c r="L418" t="inlineStr"/>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15878,14 +15146,8 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="n">
-        <v>949</v>
-      </c>
-      <c r="L419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
+      <c r="L419" t="inlineStr"/>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15919,14 +15181,8 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="n">
-        <v>949</v>
-      </c>
-      <c r="L420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="inlineStr"/>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15960,14 +15216,8 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="n">
-        <v>949</v>
-      </c>
-      <c r="L421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="inlineStr"/>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -16001,14 +15251,8 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="n">
-        <v>949</v>
-      </c>
-      <c r="L422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
+      <c r="L422" t="inlineStr"/>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -16042,14 +15286,8 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="n">
-        <v>949</v>
-      </c>
-      <c r="L423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
+      <c r="L423" t="inlineStr"/>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -16083,14 +15321,8 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="n">
-        <v>949</v>
-      </c>
-      <c r="L424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
+      <c r="L424" t="inlineStr"/>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16124,14 +15356,8 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="n">
-        <v>949</v>
-      </c>
-      <c r="L425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
+      <c r="L425" t="inlineStr"/>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -16165,14 +15391,8 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="n">
-        <v>949</v>
-      </c>
-      <c r="L426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
+      <c r="L426" t="inlineStr"/>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -16206,14 +15426,8 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="n">
-        <v>949</v>
-      </c>
-      <c r="L427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="inlineStr"/>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16247,14 +15461,8 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="n">
-        <v>949</v>
-      </c>
-      <c r="L428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="inlineStr"/>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16288,14 +15496,8 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="n">
-        <v>949</v>
-      </c>
-      <c r="L429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
+      <c r="L429" t="inlineStr"/>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16329,14 +15531,8 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="n">
-        <v>949</v>
-      </c>
-      <c r="L430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
+      <c r="L430" t="inlineStr"/>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16370,14 +15566,8 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="n">
-        <v>949</v>
-      </c>
-      <c r="L431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
+      <c r="L431" t="inlineStr"/>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16411,14 +15601,8 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="n">
-        <v>949</v>
-      </c>
-      <c r="L432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
+      <c r="L432" t="inlineStr"/>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -16452,14 +15636,8 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="n">
-        <v>949</v>
-      </c>
-      <c r="L433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
+      <c r="L433" t="inlineStr"/>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16493,14 +15671,8 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="n">
-        <v>949</v>
-      </c>
-      <c r="L434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="inlineStr"/>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16534,14 +15706,8 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="n">
-        <v>949</v>
-      </c>
-      <c r="L435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="inlineStr"/>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16575,14 +15741,8 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="n">
-        <v>949</v>
-      </c>
-      <c r="L436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
+      <c r="L436" t="inlineStr"/>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16616,14 +15776,8 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="n">
-        <v>949</v>
-      </c>
-      <c r="L437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
+      <c r="L437" t="inlineStr"/>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16657,14 +15811,8 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="n">
-        <v>949</v>
-      </c>
-      <c r="L438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
+      <c r="L438" t="inlineStr"/>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16698,14 +15846,8 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="n">
-        <v>949</v>
-      </c>
-      <c r="L439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="inlineStr"/>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16739,14 +15881,8 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="n">
-        <v>949</v>
-      </c>
-      <c r="L440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="inlineStr"/>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16780,14 +15916,8 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="n">
-        <v>949</v>
-      </c>
-      <c r="L441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
+      <c r="L441" t="inlineStr"/>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16821,14 +15951,8 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="n">
-        <v>949</v>
-      </c>
-      <c r="L442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
+      <c r="L442" t="inlineStr"/>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16862,14 +15986,8 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="n">
-        <v>949</v>
-      </c>
-      <c r="L443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
+      <c r="L443" t="inlineStr"/>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16903,14 +16021,8 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="n">
-        <v>949</v>
-      </c>
-      <c r="L444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
+      <c r="L444" t="inlineStr"/>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16944,14 +16056,8 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="n">
-        <v>949</v>
-      </c>
-      <c r="L445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
+      <c r="L445" t="inlineStr"/>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -16985,14 +16091,8 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="n">
-        <v>949</v>
-      </c>
-      <c r="L446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="inlineStr"/>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -17026,14 +16126,8 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="n">
-        <v>949</v>
-      </c>
-      <c r="L447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
+      <c r="L447" t="inlineStr"/>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -17067,14 +16161,8 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="n">
-        <v>949</v>
-      </c>
-      <c r="L448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
+      <c r="L448" t="inlineStr"/>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -17108,14 +16196,8 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="n">
-        <v>949</v>
-      </c>
-      <c r="L449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
+      <c r="L449" t="inlineStr"/>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -17149,14 +16231,8 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="n">
-        <v>949</v>
-      </c>
-      <c r="L450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
+      <c r="L450" t="inlineStr"/>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -17190,14 +16266,8 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="n">
-        <v>949</v>
-      </c>
-      <c r="L451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
+      <c r="L451" t="inlineStr"/>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -17231,14 +16301,8 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="n">
-        <v>949</v>
-      </c>
-      <c r="L452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
+      <c r="L452" t="inlineStr"/>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -17272,14 +16336,8 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="n">
-        <v>949</v>
-      </c>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
+      <c r="L453" t="inlineStr"/>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -17313,14 +16371,8 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="n">
-        <v>949</v>
-      </c>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
+      <c r="L454" t="inlineStr"/>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -17354,14 +16406,8 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="n">
-        <v>949</v>
-      </c>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
+      <c r="L455" t="inlineStr"/>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -17395,14 +16441,8 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="n">
-        <v>949</v>
-      </c>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
+      <c r="L456" t="inlineStr"/>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -17436,14 +16476,8 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="n">
-        <v>949</v>
-      </c>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
+      <c r="L457" t="inlineStr"/>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17477,14 +16511,8 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="n">
-        <v>949</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
+      <c r="L458" t="inlineStr"/>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17518,14 +16546,8 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="n">
-        <v>949</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="inlineStr"/>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -17559,14 +16581,8 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="n">
-        <v>949</v>
-      </c>
-      <c r="L460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="inlineStr"/>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -17600,14 +16616,8 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="n">
-        <v>949</v>
-      </c>
-      <c r="L461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="inlineStr"/>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -17641,14 +16651,8 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="n">
-        <v>949</v>
-      </c>
-      <c r="L462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="inlineStr"/>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -17682,14 +16686,8 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="n">
-        <v>949</v>
-      </c>
-      <c r="L463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="inlineStr"/>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -17723,14 +16721,8 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="n">
-        <v>949</v>
-      </c>
-      <c r="L464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
+      <c r="L464" t="inlineStr"/>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -17764,14 +16756,8 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="n">
-        <v>949</v>
-      </c>
-      <c r="L465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
+      <c r="L465" t="inlineStr"/>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17805,14 +16791,8 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="n">
-        <v>949</v>
-      </c>
-      <c r="L466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
+      <c r="L466" t="inlineStr"/>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17846,14 +16826,8 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="n">
-        <v>949</v>
-      </c>
-      <c r="L467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
+      <c r="L467" t="inlineStr"/>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17887,14 +16861,8 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="n">
-        <v>949</v>
-      </c>
-      <c r="L468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
+      <c r="L468" t="inlineStr"/>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -17928,14 +16896,8 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="n">
-        <v>949</v>
-      </c>
-      <c r="L469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
+      <c r="L469" t="inlineStr"/>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17969,14 +16931,8 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="n">
-        <v>949</v>
-      </c>
-      <c r="L470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
+      <c r="L470" t="inlineStr"/>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -18010,14 +16966,8 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="n">
-        <v>949</v>
-      </c>
-      <c r="L471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
+      <c r="L471" t="inlineStr"/>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -18051,14 +17001,8 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="n">
-        <v>949</v>
-      </c>
-      <c r="L472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
+      <c r="L472" t="inlineStr"/>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -18092,14 +17036,8 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="n">
-        <v>949</v>
-      </c>
-      <c r="L473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
+      <c r="L473" t="inlineStr"/>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -18133,14 +17071,8 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="n">
-        <v>949</v>
-      </c>
-      <c r="L474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
+      <c r="L474" t="inlineStr"/>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -18174,14 +17106,8 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="n">
-        <v>949</v>
-      </c>
-      <c r="L475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
+      <c r="L475" t="inlineStr"/>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -18215,14 +17141,8 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="n">
-        <v>949</v>
-      </c>
-      <c r="L476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
+      <c r="L476" t="inlineStr"/>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -18256,14 +17176,8 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="n">
-        <v>949</v>
-      </c>
-      <c r="L477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
+      <c r="L477" t="inlineStr"/>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -18297,14 +17211,8 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="n">
-        <v>949</v>
-      </c>
-      <c r="L478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
+      <c r="L478" t="inlineStr"/>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -18338,14 +17246,8 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="n">
-        <v>949</v>
-      </c>
-      <c r="L479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
+      <c r="L479" t="inlineStr"/>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -18379,14 +17281,8 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="n">
-        <v>949</v>
-      </c>
-      <c r="L480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
+      <c r="L480" t="inlineStr"/>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -18420,14 +17316,8 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="n">
-        <v>949</v>
-      </c>
-      <c r="L481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
+      <c r="L481" t="inlineStr"/>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -18461,14 +17351,8 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="n">
-        <v>949</v>
-      </c>
-      <c r="L482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
+      <c r="L482" t="inlineStr"/>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -18502,14 +17386,8 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="n">
-        <v>949</v>
-      </c>
-      <c r="L483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
+      <c r="L483" t="inlineStr"/>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -18543,14 +17421,8 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="n">
-        <v>949</v>
-      </c>
-      <c r="L484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
+      <c r="L484" t="inlineStr"/>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -18584,14 +17456,8 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="n">
-        <v>949</v>
-      </c>
-      <c r="L485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
+      <c r="L485" t="inlineStr"/>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -18625,14 +17491,8 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="n">
-        <v>949</v>
-      </c>
-      <c r="L486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
+      <c r="L486" t="inlineStr"/>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -18666,14 +17526,8 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="n">
-        <v>949</v>
-      </c>
-      <c r="L487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
+      <c r="L487" t="inlineStr"/>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -18707,14 +17561,8 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="n">
-        <v>949</v>
-      </c>
-      <c r="L488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
+      <c r="L488" t="inlineStr"/>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -18745,19 +17593,13 @@
         <v>0</v>
       </c>
       <c r="I489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="n">
-        <v>949</v>
-      </c>
-      <c r="L489" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
+      <c r="L489" t="inlineStr"/>
       <c r="M489" t="n">
-        <v>1.011859852476291</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
@@ -18786,7 +17628,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
@@ -18821,7 +17663,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
@@ -18856,7 +17698,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
@@ -18891,7 +17733,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
@@ -18961,7 +17803,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
@@ -18996,7 +17838,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
@@ -19031,7 +17873,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
@@ -19066,7 +17908,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
@@ -19101,7 +17943,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>

--- a/BackTest/2020-01-11 BackTest BHP.xlsx
+++ b/BackTest/2020-01-11 BackTest BHP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2695,7 +2695,7 @@
         <v>13898.68200763</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>13898.68200763</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>13898.68200763</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>12298.21520763</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>12298.21520763</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>12316.11520763</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>12316.11520763</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>12243.70870763</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>12846.40220763</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>12846.40220763</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>12828.10220763</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>12828.10220763</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>12828.10220763</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>12828.10220763</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>12828.10220763</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>12828.10220763</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>12828.10220763</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>12828.10220763</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>12829.27910763</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>12829.27910763</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>12829.27910763</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>12829.27910763</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>12826.97910763</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>13442.87910763</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>13460.47910763</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>13460.47910763</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>13397.74460763</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>13397.74460763</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>14234.11010763</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>14166.39520763</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>12819.53970763</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>12819.53970763</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>12830.03970763</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>12830.03970763</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>12830.03970763</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>12830.03970763</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>12830.03970763</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>12830.03970763</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>13073.83970763</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>13427.83970763</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>13509.83970763</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>13509.83970763</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>13499.83970763</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>13821.33970763</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>13805.63970763</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>13805.63970763</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>13785.63970763</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>13895.63970763</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>13895.63970763</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>17385.87710763</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>19810.89120762999</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>19813.19120762999</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>19819.19120762999</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>17951.20150762999</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>17951.20150762999</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>18420.28810762999</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11473,10 +11473,14 @@
         <v>18416.98810762999</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>952</v>
+      </c>
+      <c r="J336" t="n">
+        <v>952</v>
+      </c>
       <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
@@ -11506,11 +11510,19 @@
         <v>18416.98810762999</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>952</v>
+      </c>
+      <c r="J337" t="n">
+        <v>952</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11539,11 +11551,19 @@
         <v>18416.98810762999</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>952</v>
+      </c>
+      <c r="J338" t="n">
+        <v>952</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11572,10 +11592,14 @@
         <v>18731.88810762999</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>952</v>
+      </c>
+      <c r="J339" t="n">
+        <v>952</v>
+      </c>
       <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
@@ -11605,11 +11629,19 @@
         <v>18726.68810762999</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>953</v>
+      </c>
+      <c r="J340" t="n">
+        <v>952</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11638,11 +11670,19 @@
         <v>18948.08810762999</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>952</v>
+      </c>
+      <c r="J341" t="n">
+        <v>952</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11673,9 +11713,17 @@
       <c r="H342" t="n">
         <v>1</v>
       </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="I342" t="n">
+        <v>953</v>
+      </c>
+      <c r="J342" t="n">
+        <v>952</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11704,11 +11752,19 @@
         <v>19050.78810762999</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>952</v>
+      </c>
+      <c r="J343" t="n">
+        <v>952</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11739,9 +11795,17 @@
       <c r="H344" t="n">
         <v>1</v>
       </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="I344" t="n">
+        <v>954</v>
+      </c>
+      <c r="J344" t="n">
+        <v>952</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11772,9 +11836,17 @@
       <c r="H345" t="n">
         <v>1</v>
       </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="I345" t="n">
+        <v>950</v>
+      </c>
+      <c r="J345" t="n">
+        <v>952</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11805,9 +11877,17 @@
       <c r="H346" t="n">
         <v>1</v>
       </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="I346" t="n">
+        <v>952</v>
+      </c>
+      <c r="J346" t="n">
+        <v>952</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11836,11 +11916,19 @@
         <v>19298.18810762999</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>953</v>
+      </c>
+      <c r="J347" t="n">
+        <v>952</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11869,11 +11957,19 @@
         <v>19298.18810762999</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>952</v>
+      </c>
+      <c r="J348" t="n">
+        <v>952</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11902,11 +11998,19 @@
         <v>19298.18810762999</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>952</v>
+      </c>
+      <c r="J349" t="n">
+        <v>952</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11937,9 +12041,17 @@
       <c r="H350" t="n">
         <v>1</v>
       </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="I350" t="n">
+        <v>952</v>
+      </c>
+      <c r="J350" t="n">
+        <v>952</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11968,15 +12080,19 @@
         <v>19289.08810762999</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I351" t="n">
         <v>950</v>
       </c>
       <c r="J351" t="n">
-        <v>950</v>
-      </c>
-      <c r="K351" t="inlineStr"/>
+        <v>952</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12005,17 +12121,17 @@
         <v>19289.08810762999</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I352" t="n">
         <v>950</v>
       </c>
       <c r="J352" t="n">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L352" t="n">
@@ -12048,13 +12164,15 @@
       <c r="H353" t="n">
         <v>1</v>
       </c>
-      <c r="I353" t="inlineStr"/>
+      <c r="I353" t="n">
+        <v>950</v>
+      </c>
       <c r="J353" t="n">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L353" t="n">
@@ -12087,9 +12205,17 @@
       <c r="H354" t="n">
         <v>1</v>
       </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="I354" t="n">
+        <v>950</v>
+      </c>
+      <c r="J354" t="n">
+        <v>952</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12120,9 +12246,17 @@
       <c r="H355" t="n">
         <v>1</v>
       </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="I355" t="n">
+        <v>950</v>
+      </c>
+      <c r="J355" t="n">
+        <v>952</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12153,9 +12287,17 @@
       <c r="H356" t="n">
         <v>1</v>
       </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="I356" t="n">
+        <v>950</v>
+      </c>
+      <c r="J356" t="n">
+        <v>952</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12186,9 +12328,17 @@
       <c r="H357" t="n">
         <v>1</v>
       </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="I357" t="n">
+        <v>950</v>
+      </c>
+      <c r="J357" t="n">
+        <v>952</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12219,9 +12369,17 @@
       <c r="H358" t="n">
         <v>1</v>
       </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="I358" t="n">
+        <v>950</v>
+      </c>
+      <c r="J358" t="n">
+        <v>952</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12250,15 +12408,19 @@
         <v>19289.08810762999</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I359" t="n">
         <v>950</v>
       </c>
       <c r="J359" t="n">
-        <v>950</v>
-      </c>
-      <c r="K359" t="inlineStr"/>
+        <v>952</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12289,13 +12451,15 @@
       <c r="H360" t="n">
         <v>1</v>
       </c>
-      <c r="I360" t="inlineStr"/>
+      <c r="I360" t="n">
+        <v>950</v>
+      </c>
       <c r="J360" t="n">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L360" t="n">
@@ -12328,13 +12492,15 @@
       <c r="H361" t="n">
         <v>1</v>
       </c>
-      <c r="I361" t="inlineStr"/>
+      <c r="I361" t="n">
+        <v>949</v>
+      </c>
       <c r="J361" t="n">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L361" t="n">
@@ -12367,9 +12533,17 @@
       <c r="H362" t="n">
         <v>1</v>
       </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="I362" t="n">
+        <v>951</v>
+      </c>
+      <c r="J362" t="n">
+        <v>952</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12398,15 +12572,19 @@
         <v>19587.38810762999</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I363" t="n">
         <v>951</v>
       </c>
       <c r="J363" t="n">
-        <v>951</v>
-      </c>
-      <c r="K363" t="inlineStr"/>
+        <v>952</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12437,13 +12615,15 @@
       <c r="H364" t="n">
         <v>1</v>
       </c>
-      <c r="I364" t="inlineStr"/>
+      <c r="I364" t="n">
+        <v>949</v>
+      </c>
       <c r="J364" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L364" t="n">
@@ -12476,13 +12656,15 @@
       <c r="H365" t="n">
         <v>1</v>
       </c>
-      <c r="I365" t="inlineStr"/>
+      <c r="I365" t="n">
+        <v>949</v>
+      </c>
       <c r="J365" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L365" t="n">
@@ -12515,9 +12697,17 @@
       <c r="H366" t="n">
         <v>1</v>
       </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="I366" t="n">
+        <v>949</v>
+      </c>
+      <c r="J366" t="n">
+        <v>952</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12548,9 +12738,17 @@
       <c r="H367" t="n">
         <v>1</v>
       </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="I367" t="n">
+        <v>951</v>
+      </c>
+      <c r="J367" t="n">
+        <v>952</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12581,9 +12779,17 @@
       <c r="H368" t="n">
         <v>1</v>
       </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="I368" t="n">
+        <v>951</v>
+      </c>
+      <c r="J368" t="n">
+        <v>952</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12614,9 +12820,17 @@
       <c r="H369" t="n">
         <v>1</v>
       </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="I369" t="n">
+        <v>951</v>
+      </c>
+      <c r="J369" t="n">
+        <v>952</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12647,9 +12861,17 @@
       <c r="H370" t="n">
         <v>1</v>
       </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="I370" t="n">
+        <v>951</v>
+      </c>
+      <c r="J370" t="n">
+        <v>952</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12678,15 +12900,19 @@
         <v>19787.38810762999</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I371" t="n">
         <v>951</v>
       </c>
       <c r="J371" t="n">
-        <v>951</v>
-      </c>
-      <c r="K371" t="inlineStr"/>
+        <v>952</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12717,13 +12943,15 @@
       <c r="H372" t="n">
         <v>1</v>
       </c>
-      <c r="I372" t="inlineStr"/>
+      <c r="I372" t="n">
+        <v>951</v>
+      </c>
       <c r="J372" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L372" t="n">
@@ -12756,13 +12984,15 @@
       <c r="H373" t="n">
         <v>1</v>
       </c>
-      <c r="I373" t="inlineStr"/>
+      <c r="I373" t="n">
+        <v>949</v>
+      </c>
       <c r="J373" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L373" t="n">
@@ -12795,9 +13025,17 @@
       <c r="H374" t="n">
         <v>1</v>
       </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="I374" t="n">
+        <v>949</v>
+      </c>
+      <c r="J374" t="n">
+        <v>952</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12828,9 +13066,17 @@
       <c r="H375" t="n">
         <v>1</v>
       </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="I375" t="n">
+        <v>949</v>
+      </c>
+      <c r="J375" t="n">
+        <v>952</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12861,9 +13107,17 @@
       <c r="H376" t="n">
         <v>1</v>
       </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="I376" t="n">
+        <v>949</v>
+      </c>
+      <c r="J376" t="n">
+        <v>952</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12894,9 +13148,17 @@
       <c r="H377" t="n">
         <v>1</v>
       </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="I377" t="n">
+        <v>949</v>
+      </c>
+      <c r="J377" t="n">
+        <v>952</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12927,9 +13189,17 @@
       <c r="H378" t="n">
         <v>1</v>
       </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="I378" t="n">
+        <v>949</v>
+      </c>
+      <c r="J378" t="n">
+        <v>952</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12960,9 +13230,17 @@
       <c r="H379" t="n">
         <v>1</v>
       </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="I379" t="n">
+        <v>949</v>
+      </c>
+      <c r="J379" t="n">
+        <v>952</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12993,9 +13271,17 @@
       <c r="H380" t="n">
         <v>1</v>
       </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="I380" t="n">
+        <v>947</v>
+      </c>
+      <c r="J380" t="n">
+        <v>952</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13026,9 +13312,17 @@
       <c r="H381" t="n">
         <v>1</v>
       </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="I381" t="n">
+        <v>947</v>
+      </c>
+      <c r="J381" t="n">
+        <v>952</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13059,9 +13353,17 @@
       <c r="H382" t="n">
         <v>1</v>
       </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="I382" t="n">
+        <v>947</v>
+      </c>
+      <c r="J382" t="n">
+        <v>952</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13092,9 +13394,17 @@
       <c r="H383" t="n">
         <v>1</v>
       </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="I383" t="n">
+        <v>947</v>
+      </c>
+      <c r="J383" t="n">
+        <v>952</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13125,9 +13435,17 @@
       <c r="H384" t="n">
         <v>1</v>
       </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="I384" t="n">
+        <v>947</v>
+      </c>
+      <c r="J384" t="n">
+        <v>952</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13158,9 +13476,17 @@
       <c r="H385" t="n">
         <v>1</v>
       </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="I385" t="n">
+        <v>947</v>
+      </c>
+      <c r="J385" t="n">
+        <v>952</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13191,9 +13517,17 @@
       <c r="H386" t="n">
         <v>1</v>
       </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="I386" t="n">
+        <v>949</v>
+      </c>
+      <c r="J386" t="n">
+        <v>952</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13224,9 +13558,17 @@
       <c r="H387" t="n">
         <v>1</v>
       </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="I387" t="n">
+        <v>949</v>
+      </c>
+      <c r="J387" t="n">
+        <v>952</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13257,9 +13599,17 @@
       <c r="H388" t="n">
         <v>1</v>
       </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="I388" t="n">
+        <v>949</v>
+      </c>
+      <c r="J388" t="n">
+        <v>952</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13290,9 +13640,17 @@
       <c r="H389" t="n">
         <v>1</v>
       </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="I389" t="n">
+        <v>949</v>
+      </c>
+      <c r="J389" t="n">
+        <v>952</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13323,9 +13681,17 @@
       <c r="H390" t="n">
         <v>1</v>
       </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="I390" t="n">
+        <v>949</v>
+      </c>
+      <c r="J390" t="n">
+        <v>952</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13356,9 +13722,17 @@
       <c r="H391" t="n">
         <v>1</v>
       </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="I391" t="n">
+        <v>949</v>
+      </c>
+      <c r="J391" t="n">
+        <v>952</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13389,9 +13763,17 @@
       <c r="H392" t="n">
         <v>1</v>
       </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="I392" t="n">
+        <v>947</v>
+      </c>
+      <c r="J392" t="n">
+        <v>952</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13422,9 +13804,17 @@
       <c r="H393" t="n">
         <v>1</v>
       </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="I393" t="n">
+        <v>947</v>
+      </c>
+      <c r="J393" t="n">
+        <v>952</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13455,9 +13845,17 @@
       <c r="H394" t="n">
         <v>1</v>
       </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="I394" t="n">
+        <v>945</v>
+      </c>
+      <c r="J394" t="n">
+        <v>952</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13488,9 +13886,17 @@
       <c r="H395" t="n">
         <v>1</v>
       </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="I395" t="n">
+        <v>947</v>
+      </c>
+      <c r="J395" t="n">
+        <v>952</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13521,9 +13927,17 @@
       <c r="H396" t="n">
         <v>1</v>
       </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="I396" t="n">
+        <v>947</v>
+      </c>
+      <c r="J396" t="n">
+        <v>952</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13554,9 +13968,17 @@
       <c r="H397" t="n">
         <v>1</v>
       </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="I397" t="n">
+        <v>947</v>
+      </c>
+      <c r="J397" t="n">
+        <v>952</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13587,9 +14009,17 @@
       <c r="H398" t="n">
         <v>1</v>
       </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="I398" t="n">
+        <v>947</v>
+      </c>
+      <c r="J398" t="n">
+        <v>952</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13620,9 +14050,17 @@
       <c r="H399" t="n">
         <v>1</v>
       </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="I399" t="n">
+        <v>949</v>
+      </c>
+      <c r="J399" t="n">
+        <v>952</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13653,9 +14091,17 @@
       <c r="H400" t="n">
         <v>1</v>
       </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="I400" t="n">
+        <v>949</v>
+      </c>
+      <c r="J400" t="n">
+        <v>952</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13686,9 +14132,17 @@
       <c r="H401" t="n">
         <v>1</v>
       </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="I401" t="n">
+        <v>949</v>
+      </c>
+      <c r="J401" t="n">
+        <v>952</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13719,9 +14173,17 @@
       <c r="H402" t="n">
         <v>1</v>
       </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="I402" t="n">
+        <v>949</v>
+      </c>
+      <c r="J402" t="n">
+        <v>952</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13750,15 +14212,19 @@
         <v>21318.18810762999</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I403" t="n">
         <v>951</v>
       </c>
       <c r="J403" t="n">
-        <v>951</v>
-      </c>
-      <c r="K403" t="inlineStr"/>
+        <v>952</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13787,17 +14253,17 @@
         <v>21318.18810762999</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I404" t="n">
         <v>951</v>
       </c>
       <c r="J404" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L404" t="n">
@@ -13830,13 +14296,15 @@
       <c r="H405" t="n">
         <v>1</v>
       </c>
-      <c r="I405" t="inlineStr"/>
+      <c r="I405" t="n">
+        <v>951</v>
+      </c>
       <c r="J405" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L405" t="n">
@@ -13869,9 +14337,17 @@
       <c r="H406" t="n">
         <v>1</v>
       </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="I406" t="n">
+        <v>951</v>
+      </c>
+      <c r="J406" t="n">
+        <v>952</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13900,15 +14376,19 @@
         <v>21318.18810762999</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I407" t="n">
         <v>951</v>
       </c>
       <c r="J407" t="n">
-        <v>951</v>
-      </c>
-      <c r="K407" t="inlineStr"/>
+        <v>952</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13937,17 +14417,17 @@
         <v>21318.18810762999</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I408" t="n">
         <v>951</v>
       </c>
       <c r="J408" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L408" t="n">
@@ -13980,13 +14460,15 @@
       <c r="H409" t="n">
         <v>1</v>
       </c>
-      <c r="I409" t="inlineStr"/>
+      <c r="I409" t="n">
+        <v>951</v>
+      </c>
       <c r="J409" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L409" t="n">
@@ -14019,9 +14501,17 @@
       <c r="H410" t="n">
         <v>1</v>
       </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="I410" t="n">
+        <v>951</v>
+      </c>
+      <c r="J410" t="n">
+        <v>952</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14052,9 +14542,17 @@
       <c r="H411" t="n">
         <v>1</v>
       </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="I411" t="n">
+        <v>953</v>
+      </c>
+      <c r="J411" t="n">
+        <v>952</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14083,11 +14581,17 @@
         <v>21598.18810762999</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>952</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14116,11 +14620,17 @@
         <v>21598.18810762999</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>952</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14149,15 +14659,17 @@
         <v>21598.18810762999</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
-      </c>
-      <c r="I414" t="n">
-        <v>953</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>953</v>
-      </c>
-      <c r="K414" t="inlineStr"/>
+        <v>952</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14186,17 +14698,15 @@
         <v>21598.18810762999</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
-      </c>
-      <c r="I415" t="n">
-        <v>953</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L415" t="n">
@@ -14227,17 +14737,15 @@
         <v>21598.18810762999</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
-      </c>
-      <c r="I416" t="n">
-        <v>953</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L416" t="n">
@@ -14268,17 +14776,15 @@
         <v>20546.77740762999</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
-      </c>
-      <c r="I417" t="n">
-        <v>953</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L417" t="n">
@@ -14309,13 +14815,13 @@
         <v>20546.77740762999</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>943</v>
       </c>
       <c r="J418" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -14350,13 +14856,13 @@
         <v>21446.77740762999</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I419" t="n">
         <v>943</v>
       </c>
       <c r="J419" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -14393,9 +14899,11 @@
       <c r="H420" t="n">
         <v>1</v>
       </c>
-      <c r="I420" t="inlineStr"/>
+      <c r="I420" t="n">
+        <v>945</v>
+      </c>
       <c r="J420" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -14430,11 +14938,11 @@
         <v>22454.67740762999</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -14469,11 +14977,11 @@
         <v>22400.79670762999</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -14508,11 +15016,11 @@
         <v>22657.69670762999</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -14547,11 +15055,11 @@
         <v>22647.09670762999</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -14586,11 +15094,11 @@
         <v>22647.09670762999</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -14625,11 +15133,11 @@
         <v>22647.09670762999</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -14664,11 +15172,11 @@
         <v>22647.09670762999</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -14703,11 +15211,11 @@
         <v>22647.09670762999</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -14742,11 +15250,11 @@
         <v>22647.09670762999</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -14781,11 +15289,11 @@
         <v>22647.09670762999</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -14820,11 +15328,11 @@
         <v>22503.39670762999</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -14859,11 +15367,11 @@
         <v>22936.89670762999</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -14898,11 +15406,11 @@
         <v>22936.89670762999</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -14937,11 +15445,11 @@
         <v>22936.89670762999</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -14976,11 +15484,11 @@
         <v>22936.89670762999</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -15015,11 +15523,11 @@
         <v>22936.89670762999</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -15054,11 +15562,11 @@
         <v>22936.89670762999</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -15093,11 +15601,11 @@
         <v>22936.89670762999</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -15132,11 +15640,11 @@
         <v>23140.69670762999</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -15171,11 +15679,11 @@
         <v>23140.69670762999</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -15210,11 +15718,11 @@
         <v>23139.19670762999</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15249,11 +15757,11 @@
         <v>24052.69670762999</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15288,11 +15796,11 @@
         <v>24052.69670762999</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15327,11 +15835,11 @@
         <v>24051.49670762999</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15366,11 +15874,11 @@
         <v>24051.49670762999</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -15405,11 +15913,11 @@
         <v>24051.49670762999</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -15444,11 +15952,11 @@
         <v>24051.49670762999</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -15483,11 +15991,11 @@
         <v>25160.79670762999</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -15522,11 +16030,11 @@
         <v>25160.79670762999</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -15561,11 +16069,11 @@
         <v>25160.79670762999</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -15600,11 +16108,11 @@
         <v>25160.79670762999</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -15639,11 +16147,11 @@
         <v>25139.49670762999</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -15678,11 +16186,11 @@
         <v>26422.79670762999</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -15717,11 +16225,11 @@
         <v>26409.89670762999</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -15756,11 +16264,11 @@
         <v>26396.49670762999</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -15795,11 +16303,11 @@
         <v>26396.49670762999</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -15834,11 +16342,11 @@
         <v>26396.49670762999</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -15873,11 +16381,11 @@
         <v>26722.49670762999</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -15912,11 +16420,11 @@
         <v>27574.49670762999</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -15951,11 +16459,11 @@
         <v>27068.29670762999</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -15990,11 +16498,11 @@
         <v>27078.59670762999</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -16029,11 +16537,11 @@
         <v>27059.19670762998</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -16068,11 +16576,11 @@
         <v>27059.19670762998</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -16107,11 +16615,11 @@
         <v>29065.75870762998</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -16146,11 +16654,11 @@
         <v>28855.75870762998</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -16185,11 +16693,11 @@
         <v>28855.75870762998</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -16224,11 +16732,11 @@
         <v>28855.75870762998</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -16267,7 +16775,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -16306,7 +16814,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -16345,7 +16853,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -16380,1273 +16888,1501 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
+        <v>952</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L471" t="n">
+        <v>1</v>
+      </c>
+      <c r="M471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="n">
+        <v>955</v>
+      </c>
+      <c r="C472" t="n">
+        <v>955</v>
+      </c>
+      <c r="D472" t="n">
+        <v>955</v>
+      </c>
+      <c r="E472" t="n">
+        <v>955</v>
+      </c>
+      <c r="F472" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="G472" t="n">
+        <v>29412.75870762998</v>
+      </c>
+      <c r="H472" t="n">
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>952</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L472" t="n">
+        <v>1</v>
+      </c>
+      <c r="M472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="n">
         <v>953</v>
       </c>
-      <c r="K471" t="inlineStr">
+      <c r="C473" t="n">
+        <v>955</v>
+      </c>
+      <c r="D473" t="n">
+        <v>955</v>
+      </c>
+      <c r="E473" t="n">
+        <v>953</v>
+      </c>
+      <c r="F473" t="n">
+        <v>470.4</v>
+      </c>
+      <c r="G473" t="n">
+        <v>29412.75870762998</v>
+      </c>
+      <c r="H473" t="n">
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>952</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L473" t="n">
+        <v>1</v>
+      </c>
+      <c r="M473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="n">
+        <v>955</v>
+      </c>
+      <c r="C474" t="n">
+        <v>955</v>
+      </c>
+      <c r="D474" t="n">
+        <v>955</v>
+      </c>
+      <c r="E474" t="n">
+        <v>955</v>
+      </c>
+      <c r="F474" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G474" t="n">
+        <v>29412.75870762998</v>
+      </c>
+      <c r="H474" t="n">
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>952</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L474" t="n">
+        <v>1</v>
+      </c>
+      <c r="M474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="n">
+        <v>953</v>
+      </c>
+      <c r="C475" t="n">
+        <v>955</v>
+      </c>
+      <c r="D475" t="n">
+        <v>955</v>
+      </c>
+      <c r="E475" t="n">
+        <v>953</v>
+      </c>
+      <c r="F475" t="n">
+        <v>122.9</v>
+      </c>
+      <c r="G475" t="n">
+        <v>29412.75870762998</v>
+      </c>
+      <c r="H475" t="n">
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>952</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L475" t="n">
+        <v>1</v>
+      </c>
+      <c r="M475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="n">
+        <v>955</v>
+      </c>
+      <c r="C476" t="n">
+        <v>955</v>
+      </c>
+      <c r="D476" t="n">
+        <v>955</v>
+      </c>
+      <c r="E476" t="n">
+        <v>955</v>
+      </c>
+      <c r="F476" t="n">
+        <v>7</v>
+      </c>
+      <c r="G476" t="n">
+        <v>29412.75870762998</v>
+      </c>
+      <c r="H476" t="n">
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>952</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L476" t="n">
+        <v>1</v>
+      </c>
+      <c r="M476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="n">
+        <v>955</v>
+      </c>
+      <c r="C477" t="n">
+        <v>955</v>
+      </c>
+      <c r="D477" t="n">
+        <v>955</v>
+      </c>
+      <c r="E477" t="n">
+        <v>955</v>
+      </c>
+      <c r="F477" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G477" t="n">
+        <v>29412.75870762998</v>
+      </c>
+      <c r="H477" t="n">
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>952</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L477" t="n">
+        <v>1</v>
+      </c>
+      <c r="M477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="n">
+        <v>953</v>
+      </c>
+      <c r="C478" t="n">
+        <v>955</v>
+      </c>
+      <c r="D478" t="n">
+        <v>955</v>
+      </c>
+      <c r="E478" t="n">
+        <v>953</v>
+      </c>
+      <c r="F478" t="n">
+        <v>641.4</v>
+      </c>
+      <c r="G478" t="n">
+        <v>29412.75870762998</v>
+      </c>
+      <c r="H478" t="n">
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>952</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L478" t="n">
+        <v>1</v>
+      </c>
+      <c r="M478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="n">
+        <v>953</v>
+      </c>
+      <c r="C479" t="n">
+        <v>953</v>
+      </c>
+      <c r="D479" t="n">
+        <v>953</v>
+      </c>
+      <c r="E479" t="n">
+        <v>953</v>
+      </c>
+      <c r="F479" t="n">
+        <v>500</v>
+      </c>
+      <c r="G479" t="n">
+        <v>28912.75870762998</v>
+      </c>
+      <c r="H479" t="n">
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>952</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L479" t="n">
+        <v>1</v>
+      </c>
+      <c r="M479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="n">
+        <v>951</v>
+      </c>
+      <c r="C480" t="n">
+        <v>951</v>
+      </c>
+      <c r="D480" t="n">
+        <v>951</v>
+      </c>
+      <c r="E480" t="n">
+        <v>951</v>
+      </c>
+      <c r="F480" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="G480" t="n">
+        <v>28895.65870762998</v>
+      </c>
+      <c r="H480" t="n">
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>952</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L480" t="n">
+        <v>1</v>
+      </c>
+      <c r="M480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="n">
+        <v>953</v>
+      </c>
+      <c r="C481" t="n">
+        <v>953</v>
+      </c>
+      <c r="D481" t="n">
+        <v>953</v>
+      </c>
+      <c r="E481" t="n">
+        <v>953</v>
+      </c>
+      <c r="F481" t="n">
+        <v>280</v>
+      </c>
+      <c r="G481" t="n">
+        <v>29175.65870762998</v>
+      </c>
+      <c r="H481" t="n">
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>952</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L481" t="n">
+        <v>1</v>
+      </c>
+      <c r="M481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="n">
+        <v>953</v>
+      </c>
+      <c r="C482" t="n">
+        <v>953</v>
+      </c>
+      <c r="D482" t="n">
+        <v>953</v>
+      </c>
+      <c r="E482" t="n">
+        <v>953</v>
+      </c>
+      <c r="F482" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="G482" t="n">
+        <v>29175.65870762998</v>
+      </c>
+      <c r="H482" t="n">
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>952</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L482" t="n">
+        <v>1</v>
+      </c>
+      <c r="M482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="n">
+        <v>953</v>
+      </c>
+      <c r="C483" t="n">
+        <v>953</v>
+      </c>
+      <c r="D483" t="n">
+        <v>953</v>
+      </c>
+      <c r="E483" t="n">
+        <v>953</v>
+      </c>
+      <c r="F483" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="G483" t="n">
+        <v>29175.65870762998</v>
+      </c>
+      <c r="H483" t="n">
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>952</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L483" t="n">
+        <v>1</v>
+      </c>
+      <c r="M483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="n">
+        <v>953</v>
+      </c>
+      <c r="C484" t="n">
+        <v>953</v>
+      </c>
+      <c r="D484" t="n">
+        <v>953</v>
+      </c>
+      <c r="E484" t="n">
+        <v>953</v>
+      </c>
+      <c r="F484" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G484" t="n">
+        <v>29175.65870762998</v>
+      </c>
+      <c r="H484" t="n">
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>952</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L484" t="n">
+        <v>1</v>
+      </c>
+      <c r="M484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="n">
+        <v>953</v>
+      </c>
+      <c r="C485" t="n">
+        <v>953</v>
+      </c>
+      <c r="D485" t="n">
+        <v>953</v>
+      </c>
+      <c r="E485" t="n">
+        <v>953</v>
+      </c>
+      <c r="F485" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G485" t="n">
+        <v>29175.65870762998</v>
+      </c>
+      <c r="H485" t="n">
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>952</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L485" t="n">
+        <v>1</v>
+      </c>
+      <c r="M485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="n">
+        <v>953</v>
+      </c>
+      <c r="C486" t="n">
+        <v>955</v>
+      </c>
+      <c r="D486" t="n">
+        <v>955</v>
+      </c>
+      <c r="E486" t="n">
+        <v>953</v>
+      </c>
+      <c r="F486" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="G486" t="n">
+        <v>29391.05870762999</v>
+      </c>
+      <c r="H486" t="n">
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>952</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L486" t="n">
+        <v>1</v>
+      </c>
+      <c r="M486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="n">
+        <v>957</v>
+      </c>
+      <c r="C487" t="n">
+        <v>957</v>
+      </c>
+      <c r="D487" t="n">
+        <v>957</v>
+      </c>
+      <c r="E487" t="n">
+        <v>957</v>
+      </c>
+      <c r="F487" t="n">
+        <v>256</v>
+      </c>
+      <c r="G487" t="n">
+        <v>29647.05870762999</v>
+      </c>
+      <c r="H487" t="n">
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>952</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L487" t="n">
+        <v>1</v>
+      </c>
+      <c r="M487" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="n">
+        <v>957</v>
+      </c>
+      <c r="C488" t="n">
+        <v>957</v>
+      </c>
+      <c r="D488" t="n">
+        <v>957</v>
+      </c>
+      <c r="E488" t="n">
+        <v>957</v>
+      </c>
+      <c r="F488" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G488" t="n">
+        <v>29647.05870762999</v>
+      </c>
+      <c r="H488" t="n">
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>952</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L488" t="n">
+        <v>1</v>
+      </c>
+      <c r="M488" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="n">
+        <v>955</v>
+      </c>
+      <c r="C489" t="n">
+        <v>955</v>
+      </c>
+      <c r="D489" t="n">
+        <v>955</v>
+      </c>
+      <c r="E489" t="n">
+        <v>955</v>
+      </c>
+      <c r="F489" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="G489" t="n">
+        <v>29631.45870762999</v>
+      </c>
+      <c r="H489" t="n">
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>952</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L489" t="n">
+        <v>1</v>
+      </c>
+      <c r="M489" t="inlineStr"/>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="n">
+        <v>955</v>
+      </c>
+      <c r="C490" t="n">
+        <v>955</v>
+      </c>
+      <c r="D490" t="n">
+        <v>955</v>
+      </c>
+      <c r="E490" t="n">
+        <v>955</v>
+      </c>
+      <c r="F490" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G490" t="n">
+        <v>29631.45870762999</v>
+      </c>
+      <c r="H490" t="n">
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>952</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L490" t="n">
+        <v>1</v>
+      </c>
+      <c r="M490" t="inlineStr"/>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="n">
+        <v>957</v>
+      </c>
+      <c r="C491" t="n">
+        <v>957</v>
+      </c>
+      <c r="D491" t="n">
+        <v>957</v>
+      </c>
+      <c r="E491" t="n">
+        <v>957</v>
+      </c>
+      <c r="F491" t="n">
+        <v>129</v>
+      </c>
+      <c r="G491" t="n">
+        <v>29760.45870762999</v>
+      </c>
+      <c r="H491" t="n">
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>952</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L491" t="n">
+        <v>1</v>
+      </c>
+      <c r="M491" t="inlineStr"/>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="n">
+        <v>955</v>
+      </c>
+      <c r="C492" t="n">
+        <v>957</v>
+      </c>
+      <c r="D492" t="n">
+        <v>957</v>
+      </c>
+      <c r="E492" t="n">
+        <v>955</v>
+      </c>
+      <c r="F492" t="n">
+        <v>629.1</v>
+      </c>
+      <c r="G492" t="n">
+        <v>29760.45870762999</v>
+      </c>
+      <c r="H492" t="n">
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>952</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L492" t="n">
+        <v>1</v>
+      </c>
+      <c r="M492" t="inlineStr"/>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="n">
+        <v>955</v>
+      </c>
+      <c r="C493" t="n">
+        <v>955</v>
+      </c>
+      <c r="D493" t="n">
+        <v>955</v>
+      </c>
+      <c r="E493" t="n">
+        <v>955</v>
+      </c>
+      <c r="F493" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="G493" t="n">
+        <v>29741.65870762999</v>
+      </c>
+      <c r="H493" t="n">
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>952</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L493" t="n">
+        <v>1</v>
+      </c>
+      <c r="M493" t="inlineStr"/>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="n">
+        <v>955</v>
+      </c>
+      <c r="C494" t="n">
+        <v>955</v>
+      </c>
+      <c r="D494" t="n">
+        <v>955</v>
+      </c>
+      <c r="E494" t="n">
+        <v>955</v>
+      </c>
+      <c r="F494" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G494" t="n">
+        <v>29741.65870762999</v>
+      </c>
+      <c r="H494" t="n">
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>952</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L494" t="n">
+        <v>1</v>
+      </c>
+      <c r="M494" t="inlineStr"/>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="n">
+        <v>955</v>
+      </c>
+      <c r="C495" t="n">
+        <v>955</v>
+      </c>
+      <c r="D495" t="n">
+        <v>955</v>
+      </c>
+      <c r="E495" t="n">
+        <v>955</v>
+      </c>
+      <c r="F495" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G495" t="n">
+        <v>29741.65870762999</v>
+      </c>
+      <c r="H495" t="n">
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>952</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L495" t="n">
+        <v>1</v>
+      </c>
+      <c r="M495" t="inlineStr"/>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="n">
+        <v>955</v>
+      </c>
+      <c r="C496" t="n">
+        <v>957</v>
+      </c>
+      <c r="D496" t="n">
+        <v>957</v>
+      </c>
+      <c r="E496" t="n">
+        <v>955</v>
+      </c>
+      <c r="F496" t="n">
+        <v>866.5</v>
+      </c>
+      <c r="G496" t="n">
+        <v>30608.15870762999</v>
+      </c>
+      <c r="H496" t="n">
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>952</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L496" t="n">
+        <v>1</v>
+      </c>
+      <c r="M496" t="inlineStr"/>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="n">
+        <v>954</v>
+      </c>
+      <c r="C497" t="n">
+        <v>954</v>
+      </c>
+      <c r="D497" t="n">
+        <v>954</v>
+      </c>
+      <c r="E497" t="n">
+        <v>954</v>
+      </c>
+      <c r="F497" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G497" t="n">
+        <v>30601.85870762999</v>
+      </c>
+      <c r="H497" t="n">
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>952</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L497" t="n">
+        <v>1</v>
+      </c>
+      <c r="M497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="n">
+        <v>955</v>
+      </c>
+      <c r="C498" t="n">
+        <v>957</v>
+      </c>
+      <c r="D498" t="n">
+        <v>957</v>
+      </c>
+      <c r="E498" t="n">
+        <v>955</v>
+      </c>
+      <c r="F498" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G498" t="n">
+        <v>31666.85870762999</v>
+      </c>
+      <c r="H498" t="n">
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>952</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L498" t="n">
+        <v>1</v>
+      </c>
+      <c r="M498" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="n">
+        <v>957</v>
+      </c>
+      <c r="C499" t="n">
+        <v>957</v>
+      </c>
+      <c r="D499" t="n">
+        <v>957</v>
+      </c>
+      <c r="E499" t="n">
+        <v>957</v>
+      </c>
+      <c r="F499" t="n">
+        <v>11</v>
+      </c>
+      <c r="G499" t="n">
+        <v>31666.85870762999</v>
+      </c>
+      <c r="H499" t="n">
+        <v>0</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>952</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L499" t="n">
+        <v>1</v>
+      </c>
+      <c r="M499" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="n">
+        <v>955</v>
+      </c>
+      <c r="C500" t="n">
+        <v>955</v>
+      </c>
+      <c r="D500" t="n">
+        <v>955</v>
+      </c>
+      <c r="E500" t="n">
+        <v>955</v>
+      </c>
+      <c r="F500" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G500" t="n">
+        <v>31662.05870762999</v>
+      </c>
+      <c r="H500" t="n">
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>952</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L500" t="n">
+        <v>1</v>
+      </c>
+      <c r="M500" t="inlineStr"/>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="n">
+        <v>955</v>
+      </c>
+      <c r="C501" t="n">
+        <v>955</v>
+      </c>
+      <c r="D501" t="n">
+        <v>955</v>
+      </c>
+      <c r="E501" t="n">
+        <v>955</v>
+      </c>
+      <c r="F501" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G501" t="n">
+        <v>31662.05870762999</v>
+      </c>
+      <c r="H501" t="n">
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>952</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L501" t="n">
+        <v>1</v>
+      </c>
+      <c r="M501" t="inlineStr"/>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" t="n">
+        <v>957</v>
+      </c>
+      <c r="C502" t="n">
+        <v>957</v>
+      </c>
+      <c r="D502" t="n">
+        <v>957</v>
+      </c>
+      <c r="E502" t="n">
+        <v>957</v>
+      </c>
+      <c r="F502" t="n">
+        <v>296</v>
+      </c>
+      <c r="G502" t="n">
+        <v>31958.05870762999</v>
+      </c>
+      <c r="H502" t="n">
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>952</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L502" t="n">
+        <v>1</v>
+      </c>
+      <c r="M502" t="inlineStr"/>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" t="n">
+        <v>957</v>
+      </c>
+      <c r="C503" t="n">
+        <v>957</v>
+      </c>
+      <c r="D503" t="n">
+        <v>959</v>
+      </c>
+      <c r="E503" t="n">
+        <v>957</v>
+      </c>
+      <c r="F503" t="n">
+        <v>111.2</v>
+      </c>
+      <c r="G503" t="n">
+        <v>31958.05870762999</v>
+      </c>
+      <c r="H503" t="n">
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>952</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L503" t="n">
+        <v>1</v>
+      </c>
+      <c r="M503" t="inlineStr"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" t="n">
+        <v>957</v>
+      </c>
+      <c r="C504" t="n">
+        <v>957</v>
+      </c>
+      <c r="D504" t="n">
+        <v>957</v>
+      </c>
+      <c r="E504" t="n">
+        <v>957</v>
+      </c>
+      <c r="F504" t="n">
+        <v>249.2</v>
+      </c>
+      <c r="G504" t="n">
+        <v>31958.05870762999</v>
+      </c>
+      <c r="H504" t="n">
+        <v>0</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>952</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L504" t="n">
+        <v>1</v>
+      </c>
+      <c r="M504" t="inlineStr"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" t="n">
+        <v>957</v>
+      </c>
+      <c r="C505" t="n">
+        <v>959</v>
+      </c>
+      <c r="D505" t="n">
+        <v>959</v>
+      </c>
+      <c r="E505" t="n">
+        <v>957</v>
+      </c>
+      <c r="F505" t="n">
+        <v>324.6</v>
+      </c>
+      <c r="G505" t="n">
+        <v>32282.65870762999</v>
+      </c>
+      <c r="H505" t="n">
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>952</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L505" t="n">
+        <v>1</v>
+      </c>
+      <c r="M505" t="inlineStr"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" t="n">
+        <v>961</v>
+      </c>
+      <c r="C506" t="n">
+        <v>961</v>
+      </c>
+      <c r="D506" t="n">
+        <v>961</v>
+      </c>
+      <c r="E506" t="n">
+        <v>961</v>
+      </c>
+      <c r="F506" t="n">
+        <v>366</v>
+      </c>
+      <c r="G506" t="n">
+        <v>32648.65870762999</v>
+      </c>
+      <c r="H506" t="n">
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>952</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L506" t="n">
+        <v>1</v>
+      </c>
+      <c r="M506" t="inlineStr"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B507" t="n">
+        <v>961</v>
+      </c>
+      <c r="C507" t="n">
+        <v>961</v>
+      </c>
+      <c r="D507" t="n">
+        <v>961</v>
+      </c>
+      <c r="E507" t="n">
+        <v>961</v>
+      </c>
+      <c r="F507" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="G507" t="n">
+        <v>32648.65870762999</v>
+      </c>
+      <c r="H507" t="n">
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>952</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L507" t="n">
+        <v>1</v>
+      </c>
+      <c r="M507" t="inlineStr"/>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" t="n">
+        <v>959</v>
+      </c>
+      <c r="C508" t="n">
+        <v>961</v>
+      </c>
+      <c r="D508" t="n">
+        <v>961</v>
+      </c>
+      <c r="E508" t="n">
+        <v>959</v>
+      </c>
+      <c r="F508" t="n">
+        <v>669.8</v>
+      </c>
+      <c r="G508" t="n">
+        <v>32648.65870762999</v>
+      </c>
+      <c r="H508" t="n">
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>952</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L508" t="n">
+        <v>1</v>
+      </c>
+      <c r="M508" t="inlineStr"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" t="n">
+        <v>960</v>
+      </c>
+      <c r="C509" t="n">
+        <v>960</v>
+      </c>
+      <c r="D509" t="n">
+        <v>960</v>
+      </c>
+      <c r="E509" t="n">
+        <v>960</v>
+      </c>
+      <c r="F509" t="n">
+        <v>8</v>
+      </c>
+      <c r="G509" t="n">
+        <v>32640.65870762999</v>
+      </c>
+      <c r="H509" t="n">
+        <v>2</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>952</v>
+      </c>
+      <c r="K509" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L471" t="n">
-        <v>0.9970986358866737</v>
-      </c>
-      <c r="M471" t="inlineStr"/>
-    </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
-        <v>470</v>
-      </c>
-      <c r="B472" t="n">
-        <v>955</v>
-      </c>
-      <c r="C472" t="n">
-        <v>955</v>
-      </c>
-      <c r="D472" t="n">
-        <v>955</v>
-      </c>
-      <c r="E472" t="n">
-        <v>955</v>
-      </c>
-      <c r="F472" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="G472" t="n">
-        <v>29412.75870762998</v>
-      </c>
-      <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
-      <c r="L472" t="n">
-        <v>1</v>
-      </c>
-      <c r="M472" t="inlineStr"/>
-    </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="B473" t="n">
-        <v>953</v>
-      </c>
-      <c r="C473" t="n">
-        <v>955</v>
-      </c>
-      <c r="D473" t="n">
-        <v>955</v>
-      </c>
-      <c r="E473" t="n">
-        <v>953</v>
-      </c>
-      <c r="F473" t="n">
-        <v>470.4</v>
-      </c>
-      <c r="G473" t="n">
-        <v>29412.75870762998</v>
-      </c>
-      <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
-      <c r="L473" t="n">
-        <v>1</v>
-      </c>
-      <c r="M473" t="inlineStr"/>
-    </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
-        <v>472</v>
-      </c>
-      <c r="B474" t="n">
-        <v>955</v>
-      </c>
-      <c r="C474" t="n">
-        <v>955</v>
-      </c>
-      <c r="D474" t="n">
-        <v>955</v>
-      </c>
-      <c r="E474" t="n">
-        <v>955</v>
-      </c>
-      <c r="F474" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="G474" t="n">
-        <v>29412.75870762998</v>
-      </c>
-      <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
-      <c r="L474" t="n">
-        <v>1</v>
-      </c>
-      <c r="M474" t="inlineStr"/>
-    </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
-        <v>473</v>
-      </c>
-      <c r="B475" t="n">
-        <v>953</v>
-      </c>
-      <c r="C475" t="n">
-        <v>955</v>
-      </c>
-      <c r="D475" t="n">
-        <v>955</v>
-      </c>
-      <c r="E475" t="n">
-        <v>953</v>
-      </c>
-      <c r="F475" t="n">
-        <v>122.9</v>
-      </c>
-      <c r="G475" t="n">
-        <v>29412.75870762998</v>
-      </c>
-      <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
-      <c r="L475" t="n">
-        <v>1</v>
-      </c>
-      <c r="M475" t="inlineStr"/>
-    </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
-        <v>474</v>
-      </c>
-      <c r="B476" t="n">
-        <v>955</v>
-      </c>
-      <c r="C476" t="n">
-        <v>955</v>
-      </c>
-      <c r="D476" t="n">
-        <v>955</v>
-      </c>
-      <c r="E476" t="n">
-        <v>955</v>
-      </c>
-      <c r="F476" t="n">
-        <v>7</v>
-      </c>
-      <c r="G476" t="n">
-        <v>29412.75870762998</v>
-      </c>
-      <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
-      <c r="L476" t="n">
-        <v>1</v>
-      </c>
-      <c r="M476" t="inlineStr"/>
-    </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
-        <v>475</v>
-      </c>
-      <c r="B477" t="n">
-        <v>955</v>
-      </c>
-      <c r="C477" t="n">
-        <v>955</v>
-      </c>
-      <c r="D477" t="n">
-        <v>955</v>
-      </c>
-      <c r="E477" t="n">
-        <v>955</v>
-      </c>
-      <c r="F477" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="G477" t="n">
-        <v>29412.75870762998</v>
-      </c>
-      <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
-      <c r="L477" t="n">
-        <v>1</v>
-      </c>
-      <c r="M477" t="inlineStr"/>
-    </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
-        <v>476</v>
-      </c>
-      <c r="B478" t="n">
-        <v>953</v>
-      </c>
-      <c r="C478" t="n">
-        <v>955</v>
-      </c>
-      <c r="D478" t="n">
-        <v>955</v>
-      </c>
-      <c r="E478" t="n">
-        <v>953</v>
-      </c>
-      <c r="F478" t="n">
-        <v>641.4</v>
-      </c>
-      <c r="G478" t="n">
-        <v>29412.75870762998</v>
-      </c>
-      <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
-      <c r="L478" t="n">
-        <v>1</v>
-      </c>
-      <c r="M478" t="inlineStr"/>
-    </row>
-    <row r="479">
-      <c r="A479" s="1" t="n">
-        <v>477</v>
-      </c>
-      <c r="B479" t="n">
-        <v>953</v>
-      </c>
-      <c r="C479" t="n">
-        <v>953</v>
-      </c>
-      <c r="D479" t="n">
-        <v>953</v>
-      </c>
-      <c r="E479" t="n">
-        <v>953</v>
-      </c>
-      <c r="F479" t="n">
-        <v>500</v>
-      </c>
-      <c r="G479" t="n">
-        <v>28912.75870762998</v>
-      </c>
-      <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
-      <c r="L479" t="n">
-        <v>1</v>
-      </c>
-      <c r="M479" t="inlineStr"/>
-    </row>
-    <row r="480">
-      <c r="A480" s="1" t="n">
-        <v>478</v>
-      </c>
-      <c r="B480" t="n">
-        <v>951</v>
-      </c>
-      <c r="C480" t="n">
-        <v>951</v>
-      </c>
-      <c r="D480" t="n">
-        <v>951</v>
-      </c>
-      <c r="E480" t="n">
-        <v>951</v>
-      </c>
-      <c r="F480" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="G480" t="n">
-        <v>28895.65870762998</v>
-      </c>
-      <c r="H480" t="n">
-        <v>3</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
-      <c r="L480" t="n">
-        <v>1</v>
-      </c>
-      <c r="M480" t="inlineStr"/>
-    </row>
-    <row r="481">
-      <c r="A481" s="1" t="n">
-        <v>479</v>
-      </c>
-      <c r="B481" t="n">
-        <v>953</v>
-      </c>
-      <c r="C481" t="n">
-        <v>953</v>
-      </c>
-      <c r="D481" t="n">
-        <v>953</v>
-      </c>
-      <c r="E481" t="n">
-        <v>953</v>
-      </c>
-      <c r="F481" t="n">
-        <v>280</v>
-      </c>
-      <c r="G481" t="n">
-        <v>29175.65870762998</v>
-      </c>
-      <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
-      <c r="L481" t="n">
-        <v>1</v>
-      </c>
-      <c r="M481" t="inlineStr"/>
-    </row>
-    <row r="482">
-      <c r="A482" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="B482" t="n">
-        <v>953</v>
-      </c>
-      <c r="C482" t="n">
-        <v>953</v>
-      </c>
-      <c r="D482" t="n">
-        <v>953</v>
-      </c>
-      <c r="E482" t="n">
-        <v>953</v>
-      </c>
-      <c r="F482" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="G482" t="n">
-        <v>29175.65870762998</v>
-      </c>
-      <c r="H482" t="n">
-        <v>1</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
-      <c r="L482" t="n">
-        <v>1</v>
-      </c>
-      <c r="M482" t="inlineStr"/>
-    </row>
-    <row r="483">
-      <c r="A483" s="1" t="n">
-        <v>481</v>
-      </c>
-      <c r="B483" t="n">
-        <v>953</v>
-      </c>
-      <c r="C483" t="n">
-        <v>953</v>
-      </c>
-      <c r="D483" t="n">
-        <v>953</v>
-      </c>
-      <c r="E483" t="n">
-        <v>953</v>
-      </c>
-      <c r="F483" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="G483" t="n">
-        <v>29175.65870762998</v>
-      </c>
-      <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
-      <c r="L483" t="n">
-        <v>1</v>
-      </c>
-      <c r="M483" t="inlineStr"/>
-    </row>
-    <row r="484">
-      <c r="A484" s="1" t="n">
-        <v>482</v>
-      </c>
-      <c r="B484" t="n">
-        <v>953</v>
-      </c>
-      <c r="C484" t="n">
-        <v>953</v>
-      </c>
-      <c r="D484" t="n">
-        <v>953</v>
-      </c>
-      <c r="E484" t="n">
-        <v>953</v>
-      </c>
-      <c r="F484" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G484" t="n">
-        <v>29175.65870762998</v>
-      </c>
-      <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
-      <c r="L484" t="n">
-        <v>1</v>
-      </c>
-      <c r="M484" t="inlineStr"/>
-    </row>
-    <row r="485">
-      <c r="A485" s="1" t="n">
-        <v>483</v>
-      </c>
-      <c r="B485" t="n">
-        <v>953</v>
-      </c>
-      <c r="C485" t="n">
-        <v>953</v>
-      </c>
-      <c r="D485" t="n">
-        <v>953</v>
-      </c>
-      <c r="E485" t="n">
-        <v>953</v>
-      </c>
-      <c r="F485" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="G485" t="n">
-        <v>29175.65870762998</v>
-      </c>
-      <c r="H485" t="n">
-        <v>1</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
-      <c r="L485" t="n">
-        <v>1</v>
-      </c>
-      <c r="M485" t="inlineStr"/>
-    </row>
-    <row r="486">
-      <c r="A486" s="1" t="n">
-        <v>484</v>
-      </c>
-      <c r="B486" t="n">
-        <v>953</v>
-      </c>
-      <c r="C486" t="n">
-        <v>955</v>
-      </c>
-      <c r="D486" t="n">
-        <v>955</v>
-      </c>
-      <c r="E486" t="n">
-        <v>953</v>
-      </c>
-      <c r="F486" t="n">
-        <v>215.4</v>
-      </c>
-      <c r="G486" t="n">
-        <v>29391.05870762999</v>
-      </c>
-      <c r="H486" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
-      <c r="L486" t="n">
-        <v>1</v>
-      </c>
-      <c r="M486" t="inlineStr"/>
-    </row>
-    <row r="487">
-      <c r="A487" s="1" t="n">
-        <v>485</v>
-      </c>
-      <c r="B487" t="n">
-        <v>957</v>
-      </c>
-      <c r="C487" t="n">
-        <v>957</v>
-      </c>
-      <c r="D487" t="n">
-        <v>957</v>
-      </c>
-      <c r="E487" t="n">
-        <v>957</v>
-      </c>
-      <c r="F487" t="n">
-        <v>256</v>
-      </c>
-      <c r="G487" t="n">
-        <v>29647.05870762999</v>
-      </c>
-      <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
-      <c r="L487" t="n">
-        <v>1</v>
-      </c>
-      <c r="M487" t="inlineStr"/>
-    </row>
-    <row r="488">
-      <c r="A488" s="1" t="n">
-        <v>486</v>
-      </c>
-      <c r="B488" t="n">
-        <v>957</v>
-      </c>
-      <c r="C488" t="n">
-        <v>957</v>
-      </c>
-      <c r="D488" t="n">
-        <v>957</v>
-      </c>
-      <c r="E488" t="n">
-        <v>957</v>
-      </c>
-      <c r="F488" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="G488" t="n">
-        <v>29647.05870762999</v>
-      </c>
-      <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
-      <c r="L488" t="n">
-        <v>1</v>
-      </c>
-      <c r="M488" t="inlineStr"/>
-    </row>
-    <row r="489">
-      <c r="A489" s="1" t="n">
-        <v>487</v>
-      </c>
-      <c r="B489" t="n">
-        <v>955</v>
-      </c>
-      <c r="C489" t="n">
-        <v>955</v>
-      </c>
-      <c r="D489" t="n">
-        <v>955</v>
-      </c>
-      <c r="E489" t="n">
-        <v>955</v>
-      </c>
-      <c r="F489" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="G489" t="n">
-        <v>29631.45870762999</v>
-      </c>
-      <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
-      <c r="L489" t="n">
-        <v>1</v>
-      </c>
-      <c r="M489" t="inlineStr"/>
-    </row>
-    <row r="490">
-      <c r="A490" s="1" t="n">
-        <v>488</v>
-      </c>
-      <c r="B490" t="n">
-        <v>955</v>
-      </c>
-      <c r="C490" t="n">
-        <v>955</v>
-      </c>
-      <c r="D490" t="n">
-        <v>955</v>
-      </c>
-      <c r="E490" t="n">
-        <v>955</v>
-      </c>
-      <c r="F490" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="G490" t="n">
-        <v>29631.45870762999</v>
-      </c>
-      <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
-      <c r="L490" t="n">
-        <v>1</v>
-      </c>
-      <c r="M490" t="inlineStr"/>
-    </row>
-    <row r="491">
-      <c r="A491" s="1" t="n">
-        <v>489</v>
-      </c>
-      <c r="B491" t="n">
-        <v>957</v>
-      </c>
-      <c r="C491" t="n">
-        <v>957</v>
-      </c>
-      <c r="D491" t="n">
-        <v>957</v>
-      </c>
-      <c r="E491" t="n">
-        <v>957</v>
-      </c>
-      <c r="F491" t="n">
-        <v>129</v>
-      </c>
-      <c r="G491" t="n">
-        <v>29760.45870762999</v>
-      </c>
-      <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
-      <c r="L491" t="n">
-        <v>1</v>
-      </c>
-      <c r="M491" t="inlineStr"/>
-    </row>
-    <row r="492">
-      <c r="A492" s="1" t="n">
-        <v>490</v>
-      </c>
-      <c r="B492" t="n">
-        <v>955</v>
-      </c>
-      <c r="C492" t="n">
-        <v>957</v>
-      </c>
-      <c r="D492" t="n">
-        <v>957</v>
-      </c>
-      <c r="E492" t="n">
-        <v>955</v>
-      </c>
-      <c r="F492" t="n">
-        <v>629.1</v>
-      </c>
-      <c r="G492" t="n">
-        <v>29760.45870762999</v>
-      </c>
-      <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
-      <c r="L492" t="n">
-        <v>1</v>
-      </c>
-      <c r="M492" t="inlineStr"/>
-    </row>
-    <row r="493">
-      <c r="A493" s="1" t="n">
-        <v>491</v>
-      </c>
-      <c r="B493" t="n">
-        <v>955</v>
-      </c>
-      <c r="C493" t="n">
-        <v>955</v>
-      </c>
-      <c r="D493" t="n">
-        <v>955</v>
-      </c>
-      <c r="E493" t="n">
-        <v>955</v>
-      </c>
-      <c r="F493" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="G493" t="n">
-        <v>29741.65870762999</v>
-      </c>
-      <c r="H493" t="n">
-        <v>1</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
-      <c r="L493" t="n">
-        <v>1</v>
-      </c>
-      <c r="M493" t="inlineStr"/>
-    </row>
-    <row r="494">
-      <c r="A494" s="1" t="n">
-        <v>492</v>
-      </c>
-      <c r="B494" t="n">
-        <v>955</v>
-      </c>
-      <c r="C494" t="n">
-        <v>955</v>
-      </c>
-      <c r="D494" t="n">
-        <v>955</v>
-      </c>
-      <c r="E494" t="n">
-        <v>955</v>
-      </c>
-      <c r="F494" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G494" t="n">
-        <v>29741.65870762999</v>
-      </c>
-      <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
-      <c r="L494" t="n">
-        <v>1</v>
-      </c>
-      <c r="M494" t="inlineStr"/>
-    </row>
-    <row r="495">
-      <c r="A495" s="1" t="n">
-        <v>493</v>
-      </c>
-      <c r="B495" t="n">
-        <v>955</v>
-      </c>
-      <c r="C495" t="n">
-        <v>955</v>
-      </c>
-      <c r="D495" t="n">
-        <v>955</v>
-      </c>
-      <c r="E495" t="n">
-        <v>955</v>
-      </c>
-      <c r="F495" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G495" t="n">
-        <v>29741.65870762999</v>
-      </c>
-      <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
-      <c r="L495" t="n">
-        <v>1</v>
-      </c>
-      <c r="M495" t="inlineStr"/>
-    </row>
-    <row r="496">
-      <c r="A496" s="1" t="n">
-        <v>494</v>
-      </c>
-      <c r="B496" t="n">
-        <v>955</v>
-      </c>
-      <c r="C496" t="n">
-        <v>957</v>
-      </c>
-      <c r="D496" t="n">
-        <v>957</v>
-      </c>
-      <c r="E496" t="n">
-        <v>955</v>
-      </c>
-      <c r="F496" t="n">
-        <v>866.5</v>
-      </c>
-      <c r="G496" t="n">
-        <v>30608.15870762999</v>
-      </c>
-      <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
-      <c r="L496" t="n">
-        <v>1</v>
-      </c>
-      <c r="M496" t="inlineStr"/>
-    </row>
-    <row r="497">
-      <c r="A497" s="1" t="n">
-        <v>495</v>
-      </c>
-      <c r="B497" t="n">
-        <v>954</v>
-      </c>
-      <c r="C497" t="n">
-        <v>954</v>
-      </c>
-      <c r="D497" t="n">
-        <v>954</v>
-      </c>
-      <c r="E497" t="n">
-        <v>954</v>
-      </c>
-      <c r="F497" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="G497" t="n">
-        <v>30601.85870762999</v>
-      </c>
-      <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
-      <c r="L497" t="n">
-        <v>1</v>
-      </c>
-      <c r="M497" t="inlineStr"/>
-    </row>
-    <row r="498">
-      <c r="A498" s="1" t="n">
-        <v>496</v>
-      </c>
-      <c r="B498" t="n">
-        <v>955</v>
-      </c>
-      <c r="C498" t="n">
-        <v>957</v>
-      </c>
-      <c r="D498" t="n">
-        <v>957</v>
-      </c>
-      <c r="E498" t="n">
-        <v>955</v>
-      </c>
-      <c r="F498" t="n">
-        <v>1065</v>
-      </c>
-      <c r="G498" t="n">
-        <v>31666.85870762999</v>
-      </c>
-      <c r="H498" t="n">
-        <v>3</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
-      <c r="L498" t="n">
-        <v>1</v>
-      </c>
-      <c r="M498" t="inlineStr"/>
-    </row>
-    <row r="499">
-      <c r="A499" s="1" t="n">
-        <v>497</v>
-      </c>
-      <c r="B499" t="n">
-        <v>957</v>
-      </c>
-      <c r="C499" t="n">
-        <v>957</v>
-      </c>
-      <c r="D499" t="n">
-        <v>957</v>
-      </c>
-      <c r="E499" t="n">
-        <v>957</v>
-      </c>
-      <c r="F499" t="n">
-        <v>11</v>
-      </c>
-      <c r="G499" t="n">
-        <v>31666.85870762999</v>
-      </c>
-      <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
-      <c r="L499" t="n">
-        <v>1</v>
-      </c>
-      <c r="M499" t="inlineStr"/>
-    </row>
-    <row r="500">
-      <c r="A500" s="1" t="n">
-        <v>498</v>
-      </c>
-      <c r="B500" t="n">
-        <v>955</v>
-      </c>
-      <c r="C500" t="n">
-        <v>955</v>
-      </c>
-      <c r="D500" t="n">
-        <v>955</v>
-      </c>
-      <c r="E500" t="n">
-        <v>955</v>
-      </c>
-      <c r="F500" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="G500" t="n">
-        <v>31662.05870762999</v>
-      </c>
-      <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
-      <c r="L500" t="n">
-        <v>1</v>
-      </c>
-      <c r="M500" t="inlineStr"/>
-    </row>
-    <row r="501">
-      <c r="A501" s="1" t="n">
-        <v>499</v>
-      </c>
-      <c r="B501" t="n">
-        <v>955</v>
-      </c>
-      <c r="C501" t="n">
-        <v>955</v>
-      </c>
-      <c r="D501" t="n">
-        <v>955</v>
-      </c>
-      <c r="E501" t="n">
-        <v>955</v>
-      </c>
-      <c r="F501" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G501" t="n">
-        <v>31662.05870762999</v>
-      </c>
-      <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
-      <c r="L501" t="n">
-        <v>1</v>
-      </c>
-      <c r="M501" t="inlineStr"/>
-    </row>
-    <row r="502">
-      <c r="A502" s="1" t="n">
-        <v>500</v>
-      </c>
-      <c r="B502" t="n">
-        <v>957</v>
-      </c>
-      <c r="C502" t="n">
-        <v>957</v>
-      </c>
-      <c r="D502" t="n">
-        <v>957</v>
-      </c>
-      <c r="E502" t="n">
-        <v>957</v>
-      </c>
-      <c r="F502" t="n">
-        <v>296</v>
-      </c>
-      <c r="G502" t="n">
-        <v>31958.05870762999</v>
-      </c>
-      <c r="H502" t="n">
-        <v>3</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
-      <c r="L502" t="n">
-        <v>1</v>
-      </c>
-      <c r="M502" t="inlineStr"/>
-    </row>
-    <row r="503">
-      <c r="A503" s="1" t="n">
-        <v>501</v>
-      </c>
-      <c r="B503" t="n">
-        <v>957</v>
-      </c>
-      <c r="C503" t="n">
-        <v>957</v>
-      </c>
-      <c r="D503" t="n">
-        <v>959</v>
-      </c>
-      <c r="E503" t="n">
-        <v>957</v>
-      </c>
-      <c r="F503" t="n">
-        <v>111.2</v>
-      </c>
-      <c r="G503" t="n">
-        <v>31958.05870762999</v>
-      </c>
-      <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
-      <c r="L503" t="n">
-        <v>1</v>
-      </c>
-      <c r="M503" t="inlineStr"/>
-    </row>
-    <row r="504">
-      <c r="A504" s="1" t="n">
-        <v>502</v>
-      </c>
-      <c r="B504" t="n">
-        <v>957</v>
-      </c>
-      <c r="C504" t="n">
-        <v>957</v>
-      </c>
-      <c r="D504" t="n">
-        <v>957</v>
-      </c>
-      <c r="E504" t="n">
-        <v>957</v>
-      </c>
-      <c r="F504" t="n">
-        <v>249.2</v>
-      </c>
-      <c r="G504" t="n">
-        <v>31958.05870762999</v>
-      </c>
-      <c r="H504" t="n">
-        <v>3</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
-      <c r="L504" t="n">
-        <v>1</v>
-      </c>
-      <c r="M504" t="inlineStr"/>
-    </row>
-    <row r="505">
-      <c r="A505" s="1" t="n">
-        <v>503</v>
-      </c>
-      <c r="B505" t="n">
-        <v>957</v>
-      </c>
-      <c r="C505" t="n">
-        <v>959</v>
-      </c>
-      <c r="D505" t="n">
-        <v>959</v>
-      </c>
-      <c r="E505" t="n">
-        <v>957</v>
-      </c>
-      <c r="F505" t="n">
-        <v>324.6</v>
-      </c>
-      <c r="G505" t="n">
-        <v>32282.65870762999</v>
-      </c>
-      <c r="H505" t="n">
-        <v>3</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
-      <c r="L505" t="n">
-        <v>1</v>
-      </c>
-      <c r="M505" t="inlineStr"/>
-    </row>
-    <row r="506">
-      <c r="A506" s="1" t="n">
-        <v>504</v>
-      </c>
-      <c r="B506" t="n">
-        <v>961</v>
-      </c>
-      <c r="C506" t="n">
-        <v>961</v>
-      </c>
-      <c r="D506" t="n">
-        <v>961</v>
-      </c>
-      <c r="E506" t="n">
-        <v>961</v>
-      </c>
-      <c r="F506" t="n">
-        <v>366</v>
-      </c>
-      <c r="G506" t="n">
-        <v>32648.65870762999</v>
-      </c>
-      <c r="H506" t="n">
-        <v>1</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
-      <c r="L506" t="n">
-        <v>1</v>
-      </c>
-      <c r="M506" t="inlineStr"/>
-    </row>
-    <row r="507">
-      <c r="A507" s="1" t="n">
-        <v>505</v>
-      </c>
-      <c r="B507" t="n">
-        <v>961</v>
-      </c>
-      <c r="C507" t="n">
-        <v>961</v>
-      </c>
-      <c r="D507" t="n">
-        <v>961</v>
-      </c>
-      <c r="E507" t="n">
-        <v>961</v>
-      </c>
-      <c r="F507" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="G507" t="n">
-        <v>32648.65870762999</v>
-      </c>
-      <c r="H507" t="n">
-        <v>3</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
-      <c r="L507" t="n">
-        <v>1</v>
-      </c>
-      <c r="M507" t="inlineStr"/>
-    </row>
-    <row r="508">
-      <c r="A508" s="1" t="n">
-        <v>506</v>
-      </c>
-      <c r="B508" t="n">
-        <v>959</v>
-      </c>
-      <c r="C508" t="n">
-        <v>961</v>
-      </c>
-      <c r="D508" t="n">
-        <v>961</v>
-      </c>
-      <c r="E508" t="n">
-        <v>959</v>
-      </c>
-      <c r="F508" t="n">
-        <v>669.8</v>
-      </c>
-      <c r="G508" t="n">
-        <v>32648.65870762999</v>
-      </c>
-      <c r="H508" t="n">
-        <v>3</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
-      <c r="L508" t="n">
-        <v>1</v>
-      </c>
-      <c r="M508" t="inlineStr"/>
-    </row>
-    <row r="509">
-      <c r="A509" s="1" t="n">
-        <v>507</v>
-      </c>
-      <c r="B509" t="n">
-        <v>960</v>
-      </c>
-      <c r="C509" t="n">
-        <v>960</v>
-      </c>
-      <c r="D509" t="n">
-        <v>960</v>
-      </c>
-      <c r="E509" t="n">
-        <v>960</v>
-      </c>
-      <c r="F509" t="n">
-        <v>8</v>
-      </c>
-      <c r="G509" t="n">
-        <v>32640.65870762999</v>
-      </c>
-      <c r="H509" t="n">
-        <v>3</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
-        <v>1</v>
+        <v>1.003403361344538</v>
       </c>
       <c r="M509" t="inlineStr"/>
     </row>
@@ -17673,7 +18409,7 @@
         <v>32628.55870762999</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17706,7 +18442,7 @@
         <v>32628.55870762999</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17739,7 +18475,7 @@
         <v>32628.55870762999</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17772,7 +18508,7 @@
         <v>32628.55870762999</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17805,7 +18541,7 @@
         <v>32751.95870762999</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17838,7 +18574,7 @@
         <v>32743.55870762999</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17871,7 +18607,7 @@
         <v>32743.55870762999</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17904,7 +18640,7 @@
         <v>33181.82960762999</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17937,7 +18673,7 @@
         <v>33180.62960762999</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17970,7 +18706,7 @@
         <v>33401.83310762999</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18003,7 +18739,7 @@
         <v>33401.83310762999</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18036,7 +18772,7 @@
         <v>33401.83310762999</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18069,7 +18805,7 @@
         <v>33401.83310762999</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18102,7 +18838,7 @@
         <v>33401.83310762999</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18135,7 +18871,7 @@
         <v>33399.63310763</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18168,7 +18904,7 @@
         <v>33399.63310763</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18201,7 +18937,7 @@
         <v>34199.63310763</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18234,7 +18970,7 @@
         <v>34199.63310763</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18267,7 +19003,7 @@
         <v>34117.56270763</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18300,7 +19036,7 @@
         <v>34106.36270763</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18333,7 +19069,7 @@
         <v>34167.49230763</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18366,7 +19102,7 @@
         <v>34167.49230763</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18399,7 +19135,7 @@
         <v>34471.09230763</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18432,7 +19168,7 @@
         <v>35126.79230763</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18465,7 +19201,7 @@
         <v>35126.79230763</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18498,7 +19234,7 @@
         <v>34869.09230763</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18531,7 +19267,7 @@
         <v>34857.09230763</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18564,7 +19300,7 @@
         <v>35115.89230763001</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18597,7 +19333,7 @@
         <v>35101.49230763</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18630,7 +19366,7 @@
         <v>36116.49230763</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18663,7 +19399,7 @@
         <v>36116.49230763</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18696,7 +19432,7 @@
         <v>36251.82940763</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18729,7 +19465,7 @@
         <v>36051.82940763</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18762,7 +19498,7 @@
         <v>36466.32940763</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18795,7 +19531,7 @@
         <v>36466.32940763</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18828,7 +19564,7 @@
         <v>36875.32940763</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18861,7 +19597,7 @@
         <v>36840.92940763</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18894,7 +19630,7 @@
         <v>36840.92940763</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18927,7 +19663,7 @@
         <v>36840.92940763</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18960,7 +19696,7 @@
         <v>36831.22940763</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18993,7 +19729,7 @@
         <v>36831.22940763</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19026,7 +19762,7 @@
         <v>37242.15320763</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19059,7 +19795,7 @@
         <v>37242.15320763</v>
       </c>
       <c r="H552" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19092,7 +19828,7 @@
         <v>37503.95320763</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19125,7 +19861,7 @@
         <v>37503.95320763</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19158,7 +19894,7 @@
         <v>37503.95320763</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19191,7 +19927,7 @@
         <v>37503.95320763</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19224,7 +19960,7 @@
         <v>37494.55320763</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19257,7 +19993,7 @@
         <v>37594.55320763</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19290,7 +20026,7 @@
         <v>37589.75320763</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19323,7 +20059,7 @@
         <v>37589.75320763</v>
       </c>
       <c r="H560" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19356,7 +20092,7 @@
         <v>37575.25320763</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19389,7 +20125,7 @@
         <v>37875.25320763</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19422,7 +20158,7 @@
         <v>37660.05320763</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19455,7 +20191,7 @@
         <v>37714.35320763</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19488,7 +20224,7 @@
         <v>37698.75320763</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19521,7 +20257,7 @@
         <v>37698.75320763</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19554,7 +20290,7 @@
         <v>37998.75320763</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19587,7 +20323,7 @@
         <v>37967.12730763001</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19620,7 +20356,7 @@
         <v>38664.62730763001</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19653,7 +20389,7 @@
         <v>38593.75270763</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19686,7 +20422,7 @@
         <v>38593.75270763</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19719,7 +20455,7 @@
         <v>40036.75270763</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19752,7 +20488,7 @@
         <v>40036.75270763</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19785,7 +20521,7 @@
         <v>40026.35270763</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19818,7 +20554,7 @@
         <v>40733.55270763</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19851,7 +20587,7 @@
         <v>40724.85270763</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19884,7 +20620,7 @@
         <v>41315.85270763</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19917,7 +20653,7 @@
         <v>41634.45270763</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19950,7 +20686,7 @@
         <v>41634.45270763</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19983,7 +20719,7 @@
         <v>41634.45270763</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20016,7 +20752,7 @@
         <v>41620.25270763</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20049,7 +20785,7 @@
         <v>43042.25270763</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20082,7 +20818,7 @@
         <v>43042.25270763</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20115,7 +20851,7 @@
         <v>43042.25270763</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20148,7 +20884,7 @@
         <v>43042.25270763</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20181,7 +20917,7 @@
         <v>43042.25270763</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20214,7 +20950,7 @@
         <v>43042.25270763</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20247,7 +20983,7 @@
         <v>43042.25270763</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20280,7 +21016,7 @@
         <v>43037.75270763</v>
       </c>
       <c r="H589" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20313,7 +21049,7 @@
         <v>43037.75270763</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20346,7 +21082,7 @@
         <v>43505.55270763001</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20379,7 +21115,7 @@
         <v>43505.55270763001</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20412,7 +21148,7 @@
         <v>43505.55270763001</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20445,7 +21181,7 @@
         <v>43505.55270763001</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20478,7 +21214,7 @@
         <v>43500.85270763001</v>
       </c>
       <c r="H595" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20511,7 +21247,7 @@
         <v>43500.85270763001</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20544,7 +21280,7 @@
         <v>43500.85270763001</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20577,7 +21313,7 @@
         <v>43500.85270763001</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20610,7 +21346,7 @@
         <v>43500.85270763001</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20643,7 +21379,7 @@
         <v>43500.85270763001</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20676,7 +21412,7 @@
         <v>43500.85270763001</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20709,7 +21445,7 @@
         <v>43819.85270763001</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20742,7 +21478,7 @@
         <v>43711.95270763001</v>
       </c>
       <c r="H603" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20775,7 +21511,7 @@
         <v>43711.95270763001</v>
       </c>
       <c r="H604" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20808,7 +21544,7 @@
         <v>43579.45270763001</v>
       </c>
       <c r="H605" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20841,7 +21577,7 @@
         <v>43579.45270763001</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20874,7 +21610,7 @@
         <v>43579.45270763001</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20907,7 +21643,7 @@
         <v>44079.45270763001</v>
       </c>
       <c r="H608" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20940,7 +21676,7 @@
         <v>44079.45270763001</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20973,7 +21709,7 @@
         <v>43888.95270763001</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21006,7 +21742,7 @@
         <v>43888.95270763001</v>
       </c>
       <c r="H611" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21039,7 +21775,7 @@
         <v>43888.95270763001</v>
       </c>
       <c r="H612" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21072,7 +21808,7 @@
         <v>43888.95270763001</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21105,7 +21841,7 @@
         <v>43888.95270763001</v>
       </c>
       <c r="H614" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21138,7 +21874,7 @@
         <v>44316.25270763001</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21171,7 +21907,7 @@
         <v>44296.95270763001</v>
       </c>
       <c r="H616" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21204,7 +21940,7 @@
         <v>44296.95270763001</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21237,7 +21973,7 @@
         <v>44279.55270763001</v>
       </c>
       <c r="H618" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21270,7 +22006,7 @@
         <v>44278.25270763</v>
       </c>
       <c r="H619" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21303,7 +22039,7 @@
         <v>45396.25270763</v>
       </c>
       <c r="H620" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21336,7 +22072,7 @@
         <v>45596.55270763001</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21369,7 +22105,7 @@
         <v>45596.55270763001</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21402,7 +22138,7 @@
         <v>45596.55270763001</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21435,7 +22171,7 @@
         <v>45594.35270763001</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21468,7 +22204,7 @@
         <v>46894.35270763001</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21501,7 +22237,7 @@
         <v>47147.25270763001</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21534,7 +22270,7 @@
         <v>47128.95270763001</v>
       </c>
       <c r="H627" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21567,7 +22303,7 @@
         <v>47128.95270763001</v>
       </c>
       <c r="H628" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21600,7 +22336,7 @@
         <v>47128.95270763001</v>
       </c>
       <c r="H629" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21633,7 +22369,7 @@
         <v>47116.85270763001</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21666,7 +22402,7 @@
         <v>47116.85270763001</v>
       </c>
       <c r="H631" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21699,7 +22435,7 @@
         <v>47107.75270763001</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21732,7 +22468,7 @@
         <v>47107.75270763001</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21765,7 +22501,7 @@
         <v>47091.75270763001</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21798,7 +22534,7 @@
         <v>47091.75270763001</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21831,7 +22567,7 @@
         <v>47091.75270763001</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21864,7 +22600,7 @@
         <v>47091.75270763001</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21897,7 +22633,7 @@
         <v>47045.05470763001</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21930,7 +22666,7 @@
         <v>47045.05470763001</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21963,7 +22699,7 @@
         <v>47244.05470763001</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21996,7 +22732,7 @@
         <v>47244.05470763001</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22029,7 +22765,7 @@
         <v>47231.45470763002</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22062,7 +22798,7 @@
         <v>47231.45470763002</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22095,7 +22831,7 @@
         <v>47231.45470763002</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22128,7 +22864,7 @@
         <v>47593.55470763001</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22161,7 +22897,7 @@
         <v>47593.55470763001</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -22194,7 +22930,7 @@
         <v>48312.25470763001</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22227,7 +22963,7 @@
         <v>48312.25470763001</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22260,7 +22996,7 @@
         <v>48312.25470763001</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -22293,7 +23029,7 @@
         <v>48301.35470763001</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -22326,7 +23062,7 @@
         <v>48612.85470763001</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22359,7 +23095,7 @@
         <v>49448.85470763001</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22392,7 +23128,7 @@
         <v>49448.85470763001</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22425,7 +23161,7 @@
         <v>49448.85470763001</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22458,7 +23194,7 @@
         <v>49448.85470763001</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22491,7 +23227,7 @@
         <v>49448.85470763001</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22524,7 +23260,7 @@
         <v>49448.85470763001</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22557,7 +23293,7 @@
         <v>49448.85470763001</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22590,7 +23326,7 @@
         <v>49448.85470763001</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22601,6 +23337,6 @@
       <c r="M659" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest BHP.xlsx
+++ b/BackTest/2020-01-11 BackTest BHP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2827,7 +2827,7 @@
         <v>12298.21520763</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>12298.21520763</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>12316.11520763</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>12316.11520763</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>12243.70870763</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>12846.40220763</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>12846.40220763</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>12828.10220763</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>12828.10220763</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>12828.10220763</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>12828.10220763</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>12828.10220763</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>12828.10220763</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>12828.10220763</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>12828.10220763</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>12829.27910763</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>12829.27910763</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>12829.27910763</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>12829.27910763</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>12826.97910763</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>13442.87910763</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>13460.47910763</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>13460.47910763</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>13397.74460763</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>13397.74460763</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>14234.11010763</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>14166.39520763</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>12819.53970763</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>12819.53970763</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>12830.03970763</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>12830.03970763</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>12830.03970763</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>12830.03970763</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>12830.03970763</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>12830.03970763</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>13073.83970763</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>13427.83970763</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>13409.83970763</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>13509.83970763</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>13509.83970763</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>13499.83970763</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>13821.33970763</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>13805.63970763</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>13805.63970763</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>13785.63970763</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>13895.63970763</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>13895.63970763</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>19813.19120762999</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>19813.19120762999</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>17595.94130762999</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>17586.74130762999</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>17586.74130762999</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>17586.74130762999</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>17586.74130762999</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>17586.74130762999</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>17586.74130762999</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>17586.74130762999</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>18094.04130762999</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11473,14 +11473,10 @@
         <v>18416.98810762999</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>952</v>
-      </c>
-      <c r="J336" t="n">
-        <v>952</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
@@ -11510,2147 +11506,1947 @@
         <v>18416.98810762999</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
         <v>952</v>
       </c>
-      <c r="J337" t="n">
+      <c r="C338" t="n">
         <v>952</v>
       </c>
-      <c r="K337" t="inlineStr">
+      <c r="D338" t="n">
+        <v>952</v>
+      </c>
+      <c r="E338" t="n">
+        <v>952</v>
+      </c>
+      <c r="F338" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G338" t="n">
+        <v>18416.98810762999</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>953</v>
+      </c>
+      <c r="C339" t="n">
+        <v>953</v>
+      </c>
+      <c r="D339" t="n">
+        <v>953</v>
+      </c>
+      <c r="E339" t="n">
+        <v>953</v>
+      </c>
+      <c r="F339" t="n">
+        <v>314.9</v>
+      </c>
+      <c r="G339" t="n">
+        <v>18731.88810762999</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>952</v>
+      </c>
+      <c r="C340" t="n">
+        <v>952</v>
+      </c>
+      <c r="D340" t="n">
+        <v>952</v>
+      </c>
+      <c r="E340" t="n">
+        <v>952</v>
+      </c>
+      <c r="F340" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G340" t="n">
+        <v>18726.68810762999</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>952</v>
+      </c>
+      <c r="C341" t="n">
+        <v>953</v>
+      </c>
+      <c r="D341" t="n">
+        <v>953</v>
+      </c>
+      <c r="E341" t="n">
+        <v>952</v>
+      </c>
+      <c r="F341" t="n">
+        <v>221.4</v>
+      </c>
+      <c r="G341" t="n">
+        <v>18948.08810762999</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>952</v>
+      </c>
+      <c r="C342" t="n">
+        <v>952</v>
+      </c>
+      <c r="D342" t="n">
+        <v>952</v>
+      </c>
+      <c r="E342" t="n">
+        <v>952</v>
+      </c>
+      <c r="F342" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G342" t="n">
+        <v>18944.98810762999</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>953</v>
+      </c>
+      <c r="C343" t="n">
+        <v>954</v>
+      </c>
+      <c r="D343" t="n">
+        <v>954</v>
+      </c>
+      <c r="E343" t="n">
+        <v>953</v>
+      </c>
+      <c r="F343" t="n">
+        <v>105.8</v>
+      </c>
+      <c r="G343" t="n">
+        <v>19050.78810762999</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>950</v>
+      </c>
+      <c r="C344" t="n">
+        <v>950</v>
+      </c>
+      <c r="D344" t="n">
+        <v>950</v>
+      </c>
+      <c r="E344" t="n">
+        <v>950</v>
+      </c>
+      <c r="F344" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G344" t="n">
+        <v>19047.88810762999</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>952</v>
+      </c>
+      <c r="C345" t="n">
+        <v>952</v>
+      </c>
+      <c r="D345" t="n">
+        <v>952</v>
+      </c>
+      <c r="E345" t="n">
+        <v>952</v>
+      </c>
+      <c r="F345" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="G345" t="n">
+        <v>19053.98810762999</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>953</v>
+      </c>
+      <c r="C346" t="n">
+        <v>953</v>
+      </c>
+      <c r="D346" t="n">
+        <v>953</v>
+      </c>
+      <c r="E346" t="n">
+        <v>953</v>
+      </c>
+      <c r="F346" t="n">
+        <v>246.2</v>
+      </c>
+      <c r="G346" t="n">
+        <v>19300.18810762999</v>
+      </c>
+      <c r="H346" t="n">
+        <v>2</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>952</v>
+      </c>
+      <c r="C347" t="n">
+        <v>952</v>
+      </c>
+      <c r="D347" t="n">
+        <v>952</v>
+      </c>
+      <c r="E347" t="n">
+        <v>952</v>
+      </c>
+      <c r="F347" t="n">
+        <v>2</v>
+      </c>
+      <c r="G347" t="n">
+        <v>19298.18810762999</v>
+      </c>
+      <c r="H347" t="n">
+        <v>2</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>952</v>
+      </c>
+      <c r="C348" t="n">
+        <v>952</v>
+      </c>
+      <c r="D348" t="n">
+        <v>952</v>
+      </c>
+      <c r="E348" t="n">
+        <v>952</v>
+      </c>
+      <c r="F348" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G348" t="n">
+        <v>19298.18810762999</v>
+      </c>
+      <c r="H348" t="n">
+        <v>2</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>952</v>
+      </c>
+      <c r="C349" t="n">
+        <v>952</v>
+      </c>
+      <c r="D349" t="n">
+        <v>952</v>
+      </c>
+      <c r="E349" t="n">
+        <v>952</v>
+      </c>
+      <c r="F349" t="n">
+        <v>18</v>
+      </c>
+      <c r="G349" t="n">
+        <v>19298.18810762999</v>
+      </c>
+      <c r="H349" t="n">
+        <v>2</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>950</v>
+      </c>
+      <c r="C350" t="n">
+        <v>950</v>
+      </c>
+      <c r="D350" t="n">
+        <v>950</v>
+      </c>
+      <c r="E350" t="n">
+        <v>950</v>
+      </c>
+      <c r="F350" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="G350" t="n">
+        <v>19289.08810762999</v>
+      </c>
+      <c r="H350" t="n">
+        <v>2</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>950</v>
+      </c>
+      <c r="C351" t="n">
+        <v>950</v>
+      </c>
+      <c r="D351" t="n">
+        <v>950</v>
+      </c>
+      <c r="E351" t="n">
+        <v>950</v>
+      </c>
+      <c r="F351" t="n">
+        <v>30.4224</v>
+      </c>
+      <c r="G351" t="n">
+        <v>19289.08810762999</v>
+      </c>
+      <c r="H351" t="n">
+        <v>2</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>950</v>
+      </c>
+      <c r="C352" t="n">
+        <v>950</v>
+      </c>
+      <c r="D352" t="n">
+        <v>950</v>
+      </c>
+      <c r="E352" t="n">
+        <v>950</v>
+      </c>
+      <c r="F352" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G352" t="n">
+        <v>19289.08810762999</v>
+      </c>
+      <c r="H352" t="n">
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>950</v>
+      </c>
+      <c r="J352" t="n">
+        <v>950</v>
+      </c>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>950</v>
+      </c>
+      <c r="C353" t="n">
+        <v>950</v>
+      </c>
+      <c r="D353" t="n">
+        <v>950</v>
+      </c>
+      <c r="E353" t="n">
+        <v>950</v>
+      </c>
+      <c r="F353" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G353" t="n">
+        <v>19289.08810762999</v>
+      </c>
+      <c r="H353" t="n">
+        <v>2</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>950</v>
+      </c>
+      <c r="K353" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>952</v>
-      </c>
-      <c r="C338" t="n">
-        <v>952</v>
-      </c>
-      <c r="D338" t="n">
-        <v>952</v>
-      </c>
-      <c r="E338" t="n">
-        <v>952</v>
-      </c>
-      <c r="F338" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="G338" t="n">
-        <v>18416.98810762999</v>
-      </c>
-      <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>952</v>
-      </c>
-      <c r="J338" t="n">
-        <v>952</v>
-      </c>
-      <c r="K338" t="inlineStr">
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>950</v>
+      </c>
+      <c r="C354" t="n">
+        <v>950</v>
+      </c>
+      <c r="D354" t="n">
+        <v>950</v>
+      </c>
+      <c r="E354" t="n">
+        <v>950</v>
+      </c>
+      <c r="F354" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G354" t="n">
+        <v>19289.08810762999</v>
+      </c>
+      <c r="H354" t="n">
+        <v>2</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>950</v>
+      </c>
+      <c r="K354" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>953</v>
-      </c>
-      <c r="C339" t="n">
-        <v>953</v>
-      </c>
-      <c r="D339" t="n">
-        <v>953</v>
-      </c>
-      <c r="E339" t="n">
-        <v>953</v>
-      </c>
-      <c r="F339" t="n">
-        <v>314.9</v>
-      </c>
-      <c r="G339" t="n">
-        <v>18731.88810762999</v>
-      </c>
-      <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>952</v>
-      </c>
-      <c r="J339" t="n">
-        <v>952</v>
-      </c>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>952</v>
-      </c>
-      <c r="C340" t="n">
-        <v>952</v>
-      </c>
-      <c r="D340" t="n">
-        <v>952</v>
-      </c>
-      <c r="E340" t="n">
-        <v>952</v>
-      </c>
-      <c r="F340" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="G340" t="n">
-        <v>18726.68810762999</v>
-      </c>
-      <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>953</v>
-      </c>
-      <c r="J340" t="n">
-        <v>952</v>
-      </c>
-      <c r="K340" t="inlineStr">
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>950</v>
+      </c>
+      <c r="C355" t="n">
+        <v>950</v>
+      </c>
+      <c r="D355" t="n">
+        <v>950</v>
+      </c>
+      <c r="E355" t="n">
+        <v>950</v>
+      </c>
+      <c r="F355" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="G355" t="n">
+        <v>19289.08810762999</v>
+      </c>
+      <c r="H355" t="n">
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>950</v>
+      </c>
+      <c r="J355" t="n">
+        <v>950</v>
+      </c>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>950</v>
+      </c>
+      <c r="C356" t="n">
+        <v>950</v>
+      </c>
+      <c r="D356" t="n">
+        <v>950</v>
+      </c>
+      <c r="E356" t="n">
+        <v>950</v>
+      </c>
+      <c r="F356" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="G356" t="n">
+        <v>19289.08810762999</v>
+      </c>
+      <c r="H356" t="n">
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>950</v>
+      </c>
+      <c r="J356" t="n">
+        <v>950</v>
+      </c>
+      <c r="K356" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>952</v>
-      </c>
-      <c r="C341" t="n">
-        <v>953</v>
-      </c>
-      <c r="D341" t="n">
-        <v>953</v>
-      </c>
-      <c r="E341" t="n">
-        <v>952</v>
-      </c>
-      <c r="F341" t="n">
-        <v>221.4</v>
-      </c>
-      <c r="G341" t="n">
-        <v>18948.08810762999</v>
-      </c>
-      <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>952</v>
-      </c>
-      <c r="J341" t="n">
-        <v>952</v>
-      </c>
-      <c r="K341" t="inlineStr">
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>950</v>
+      </c>
+      <c r="C357" t="n">
+        <v>950</v>
+      </c>
+      <c r="D357" t="n">
+        <v>950</v>
+      </c>
+      <c r="E357" t="n">
+        <v>950</v>
+      </c>
+      <c r="F357" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="G357" t="n">
+        <v>19289.08810762999</v>
+      </c>
+      <c r="H357" t="n">
+        <v>2</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>950</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>950</v>
+      </c>
+      <c r="C358" t="n">
+        <v>950</v>
+      </c>
+      <c r="D358" t="n">
+        <v>950</v>
+      </c>
+      <c r="E358" t="n">
+        <v>950</v>
+      </c>
+      <c r="F358" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="G358" t="n">
+        <v>19289.08810762999</v>
+      </c>
+      <c r="H358" t="n">
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>950</v>
+      </c>
+      <c r="J358" t="n">
+        <v>950</v>
+      </c>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>950</v>
+      </c>
+      <c r="C359" t="n">
+        <v>950</v>
+      </c>
+      <c r="D359" t="n">
+        <v>950</v>
+      </c>
+      <c r="E359" t="n">
+        <v>950</v>
+      </c>
+      <c r="F359" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="G359" t="n">
+        <v>19289.08810762999</v>
+      </c>
+      <c r="H359" t="n">
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>950</v>
+      </c>
+      <c r="J359" t="n">
+        <v>950</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>949</v>
+      </c>
+      <c r="C360" t="n">
+        <v>949</v>
+      </c>
+      <c r="D360" t="n">
+        <v>949</v>
+      </c>
+      <c r="E360" t="n">
+        <v>949</v>
+      </c>
+      <c r="F360" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="G360" t="n">
+        <v>19273.48810762999</v>
+      </c>
+      <c r="H360" t="n">
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>950</v>
+      </c>
+      <c r="J360" t="n">
+        <v>950</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>951</v>
+      </c>
+      <c r="C361" t="n">
+        <v>951</v>
+      </c>
+      <c r="D361" t="n">
+        <v>951</v>
+      </c>
+      <c r="E361" t="n">
+        <v>951</v>
+      </c>
+      <c r="F361" t="n">
+        <v>331</v>
+      </c>
+      <c r="G361" t="n">
+        <v>19604.48810762999</v>
+      </c>
+      <c r="H361" t="n">
+        <v>2</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>951</v>
+      </c>
+      <c r="C362" t="n">
+        <v>951</v>
+      </c>
+      <c r="D362" t="n">
+        <v>951</v>
+      </c>
+      <c r="E362" t="n">
+        <v>951</v>
+      </c>
+      <c r="F362" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="G362" t="n">
+        <v>19604.48810762999</v>
+      </c>
+      <c r="H362" t="n">
+        <v>2</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>949</v>
+      </c>
+      <c r="C363" t="n">
+        <v>949</v>
+      </c>
+      <c r="D363" t="n">
+        <v>949</v>
+      </c>
+      <c r="E363" t="n">
+        <v>949</v>
+      </c>
+      <c r="F363" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="G363" t="n">
+        <v>19587.38810762999</v>
+      </c>
+      <c r="H363" t="n">
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>951</v>
+      </c>
+      <c r="J363" t="n">
+        <v>951</v>
+      </c>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>949</v>
+      </c>
+      <c r="C364" t="n">
+        <v>949</v>
+      </c>
+      <c r="D364" t="n">
+        <v>949</v>
+      </c>
+      <c r="E364" t="n">
+        <v>949</v>
+      </c>
+      <c r="F364" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G364" t="n">
+        <v>19587.38810762999</v>
+      </c>
+      <c r="H364" t="n">
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>949</v>
+      </c>
+      <c r="J364" t="n">
+        <v>951</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>949</v>
+      </c>
+      <c r="C365" t="n">
+        <v>949</v>
+      </c>
+      <c r="D365" t="n">
+        <v>949</v>
+      </c>
+      <c r="E365" t="n">
+        <v>949</v>
+      </c>
+      <c r="F365" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="G365" t="n">
+        <v>19587.38810762999</v>
+      </c>
+      <c r="H365" t="n">
+        <v>2</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>951</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>951</v>
+      </c>
+      <c r="C366" t="n">
+        <v>951</v>
+      </c>
+      <c r="D366" t="n">
+        <v>951</v>
+      </c>
+      <c r="E366" t="n">
+        <v>951</v>
+      </c>
+      <c r="F366" t="n">
+        <v>200</v>
+      </c>
+      <c r="G366" t="n">
+        <v>19787.38810762999</v>
+      </c>
+      <c r="H366" t="n">
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>949</v>
+      </c>
+      <c r="J366" t="n">
+        <v>949</v>
+      </c>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>951</v>
+      </c>
+      <c r="C367" t="n">
+        <v>951</v>
+      </c>
+      <c r="D367" t="n">
+        <v>951</v>
+      </c>
+      <c r="E367" t="n">
+        <v>951</v>
+      </c>
+      <c r="F367" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G367" t="n">
+        <v>19787.38810762999</v>
+      </c>
+      <c r="H367" t="n">
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>951</v>
+      </c>
+      <c r="J367" t="n">
+        <v>949</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>951</v>
+      </c>
+      <c r="C368" t="n">
+        <v>951</v>
+      </c>
+      <c r="D368" t="n">
+        <v>951</v>
+      </c>
+      <c r="E368" t="n">
+        <v>951</v>
+      </c>
+      <c r="F368" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="G368" t="n">
+        <v>19787.38810762999</v>
+      </c>
+      <c r="H368" t="n">
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>951</v>
+      </c>
+      <c r="J368" t="n">
+        <v>949</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>951</v>
+      </c>
+      <c r="C369" t="n">
+        <v>951</v>
+      </c>
+      <c r="D369" t="n">
+        <v>951</v>
+      </c>
+      <c r="E369" t="n">
+        <v>951</v>
+      </c>
+      <c r="F369" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G369" t="n">
+        <v>19787.38810762999</v>
+      </c>
+      <c r="H369" t="n">
+        <v>2</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>951</v>
+      </c>
+      <c r="C370" t="n">
+        <v>951</v>
+      </c>
+      <c r="D370" t="n">
+        <v>951</v>
+      </c>
+      <c r="E370" t="n">
+        <v>951</v>
+      </c>
+      <c r="F370" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="G370" t="n">
+        <v>19787.38810762999</v>
+      </c>
+      <c r="H370" t="n">
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>951</v>
+      </c>
+      <c r="J370" t="n">
+        <v>951</v>
+      </c>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>951</v>
+      </c>
+      <c r="C371" t="n">
+        <v>951</v>
+      </c>
+      <c r="D371" t="n">
+        <v>951</v>
+      </c>
+      <c r="E371" t="n">
+        <v>951</v>
+      </c>
+      <c r="F371" t="n">
+        <v>310.6</v>
+      </c>
+      <c r="G371" t="n">
+        <v>19787.38810762999</v>
+      </c>
+      <c r="H371" t="n">
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>951</v>
+      </c>
+      <c r="J371" t="n">
+        <v>951</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>949</v>
+      </c>
+      <c r="C372" t="n">
+        <v>949</v>
+      </c>
+      <c r="D372" t="n">
+        <v>949</v>
+      </c>
+      <c r="E372" t="n">
+        <v>949</v>
+      </c>
+      <c r="F372" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G372" t="n">
+        <v>19771.88810762999</v>
+      </c>
+      <c r="H372" t="n">
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>951</v>
+      </c>
+      <c r="J372" t="n">
+        <v>951</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>949</v>
+      </c>
+      <c r="C373" t="n">
+        <v>949</v>
+      </c>
+      <c r="D373" t="n">
+        <v>949</v>
+      </c>
+      <c r="E373" t="n">
+        <v>949</v>
+      </c>
+      <c r="F373" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="G373" t="n">
+        <v>19771.88810762999</v>
+      </c>
+      <c r="H373" t="n">
+        <v>2</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>949</v>
+      </c>
+      <c r="C374" t="n">
+        <v>949</v>
+      </c>
+      <c r="D374" t="n">
+        <v>949</v>
+      </c>
+      <c r="E374" t="n">
+        <v>949</v>
+      </c>
+      <c r="F374" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="G374" t="n">
+        <v>19771.88810762999</v>
+      </c>
+      <c r="H374" t="n">
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>949</v>
+      </c>
+      <c r="J374" t="n">
+        <v>949</v>
+      </c>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>949</v>
+      </c>
+      <c r="C375" t="n">
+        <v>949</v>
+      </c>
+      <c r="D375" t="n">
+        <v>949</v>
+      </c>
+      <c r="E375" t="n">
+        <v>949</v>
+      </c>
+      <c r="F375" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="G375" t="n">
+        <v>19771.88810762999</v>
+      </c>
+      <c r="H375" t="n">
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>949</v>
+      </c>
+      <c r="J375" t="n">
+        <v>949</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>949</v>
+      </c>
+      <c r="C376" t="n">
+        <v>949</v>
+      </c>
+      <c r="D376" t="n">
+        <v>949</v>
+      </c>
+      <c r="E376" t="n">
+        <v>949</v>
+      </c>
+      <c r="F376" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="G376" t="n">
+        <v>19771.88810762999</v>
+      </c>
+      <c r="H376" t="n">
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>949</v>
+      </c>
+      <c r="J376" t="n">
+        <v>949</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>949</v>
+      </c>
+      <c r="C377" t="n">
+        <v>949</v>
+      </c>
+      <c r="D377" t="n">
+        <v>949</v>
+      </c>
+      <c r="E377" t="n">
+        <v>949</v>
+      </c>
+      <c r="F377" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="G377" t="n">
+        <v>19771.88810762999</v>
+      </c>
+      <c r="H377" t="n">
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>949</v>
+      </c>
+      <c r="J377" t="n">
+        <v>949</v>
+      </c>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>949</v>
+      </c>
+      <c r="C378" t="n">
+        <v>949</v>
+      </c>
+      <c r="D378" t="n">
+        <v>949</v>
+      </c>
+      <c r="E378" t="n">
+        <v>949</v>
+      </c>
+      <c r="F378" t="n">
+        <v>36.174</v>
+      </c>
+      <c r="G378" t="n">
+        <v>19771.88810762999</v>
+      </c>
+      <c r="H378" t="n">
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>949</v>
+      </c>
+      <c r="J378" t="n">
+        <v>949</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>947</v>
+      </c>
+      <c r="C379" t="n">
+        <v>947</v>
+      </c>
+      <c r="D379" t="n">
+        <v>947</v>
+      </c>
+      <c r="E379" t="n">
+        <v>947</v>
+      </c>
+      <c r="F379" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G379" t="n">
+        <v>19770.08810762999</v>
+      </c>
+      <c r="H379" t="n">
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>949</v>
+      </c>
+      <c r="J379" t="n">
+        <v>949</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>947</v>
+      </c>
+      <c r="C380" t="n">
+        <v>947</v>
+      </c>
+      <c r="D380" t="n">
+        <v>947</v>
+      </c>
+      <c r="E380" t="n">
+        <v>947</v>
+      </c>
+      <c r="F380" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G380" t="n">
+        <v>19770.08810762999</v>
+      </c>
+      <c r="H380" t="n">
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>947</v>
+      </c>
+      <c r="J380" t="n">
+        <v>947</v>
+      </c>
+      <c r="K380" t="inlineStr"/>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>947</v>
+      </c>
+      <c r="C381" t="n">
+        <v>947</v>
+      </c>
+      <c r="D381" t="n">
+        <v>947</v>
+      </c>
+      <c r="E381" t="n">
+        <v>947</v>
+      </c>
+      <c r="F381" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G381" t="n">
+        <v>19770.08810762999</v>
+      </c>
+      <c r="H381" t="n">
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>947</v>
+      </c>
+      <c r="J381" t="n">
+        <v>947</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>947</v>
+      </c>
+      <c r="C382" t="n">
+        <v>947</v>
+      </c>
+      <c r="D382" t="n">
+        <v>947</v>
+      </c>
+      <c r="E382" t="n">
+        <v>947</v>
+      </c>
+      <c r="F382" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="G382" t="n">
+        <v>19770.08810762999</v>
+      </c>
+      <c r="H382" t="n">
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>947</v>
+      </c>
+      <c r="J382" t="n">
+        <v>947</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>947</v>
+      </c>
+      <c r="C383" t="n">
+        <v>947</v>
+      </c>
+      <c r="D383" t="n">
+        <v>947</v>
+      </c>
+      <c r="E383" t="n">
+        <v>947</v>
+      </c>
+      <c r="F383" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="G383" t="n">
+        <v>19770.08810762999</v>
+      </c>
+      <c r="H383" t="n">
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>947</v>
+      </c>
+      <c r="J383" t="n">
+        <v>947</v>
+      </c>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>947</v>
+      </c>
+      <c r="C384" t="n">
+        <v>947</v>
+      </c>
+      <c r="D384" t="n">
+        <v>947</v>
+      </c>
+      <c r="E384" t="n">
+        <v>947</v>
+      </c>
+      <c r="F384" t="n">
+        <v>1356</v>
+      </c>
+      <c r="G384" t="n">
+        <v>19770.08810762999</v>
+      </c>
+      <c r="H384" t="n">
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>947</v>
+      </c>
+      <c r="J384" t="n">
+        <v>947</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L384" t="n">
+        <v>1</v>
+      </c>
+      <c r="M384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>949</v>
+      </c>
+      <c r="C385" t="n">
+        <v>949</v>
+      </c>
+      <c r="D385" t="n">
+        <v>949</v>
+      </c>
+      <c r="E385" t="n">
+        <v>949</v>
+      </c>
+      <c r="F385" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="G385" t="n">
+        <v>19808.28810762999</v>
+      </c>
+      <c r="H385" t="n">
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>947</v>
+      </c>
+      <c r="J385" t="n">
+        <v>947</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L385" t="n">
+        <v>1</v>
+      </c>
+      <c r="M385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>949</v>
+      </c>
+      <c r="C386" t="n">
+        <v>949</v>
+      </c>
+      <c r="D386" t="n">
+        <v>949</v>
+      </c>
+      <c r="E386" t="n">
+        <v>949</v>
+      </c>
+      <c r="F386" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G386" t="n">
+        <v>19808.28810762999</v>
+      </c>
+      <c r="H386" t="n">
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>949</v>
+      </c>
+      <c r="J386" t="n">
+        <v>949</v>
+      </c>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="n">
+        <v>1</v>
+      </c>
+      <c r="M386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>949</v>
+      </c>
+      <c r="C387" t="n">
+        <v>949</v>
+      </c>
+      <c r="D387" t="n">
+        <v>949</v>
+      </c>
+      <c r="E387" t="n">
+        <v>949</v>
+      </c>
+      <c r="F387" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G387" t="n">
+        <v>19808.28810762999</v>
+      </c>
+      <c r="H387" t="n">
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>949</v>
+      </c>
+      <c r="J387" t="n">
+        <v>949</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L387" t="n">
+        <v>1</v>
+      </c>
+      <c r="M387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>949</v>
+      </c>
+      <c r="C388" t="n">
+        <v>949</v>
+      </c>
+      <c r="D388" t="n">
+        <v>949</v>
+      </c>
+      <c r="E388" t="n">
+        <v>949</v>
+      </c>
+      <c r="F388" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G388" t="n">
+        <v>19808.28810762999</v>
+      </c>
+      <c r="H388" t="n">
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>949</v>
+      </c>
+      <c r="J388" t="n">
+        <v>949</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L388" t="n">
+        <v>1</v>
+      </c>
+      <c r="M388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>947</v>
+      </c>
+      <c r="C389" t="n">
+        <v>949</v>
+      </c>
+      <c r="D389" t="n">
+        <v>949</v>
+      </c>
+      <c r="E389" t="n">
+        <v>947</v>
+      </c>
+      <c r="F389" t="n">
+        <v>548.5</v>
+      </c>
+      <c r="G389" t="n">
+        <v>19808.28810762999</v>
+      </c>
+      <c r="H389" t="n">
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>949</v>
+      </c>
+      <c r="J389" t="n">
+        <v>949</v>
+      </c>
+      <c r="K389" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>952</v>
-      </c>
-      <c r="C342" t="n">
-        <v>952</v>
-      </c>
-      <c r="D342" t="n">
-        <v>952</v>
-      </c>
-      <c r="E342" t="n">
-        <v>952</v>
-      </c>
-      <c r="F342" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G342" t="n">
-        <v>18944.98810762999</v>
-      </c>
-      <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>953</v>
-      </c>
-      <c r="J342" t="n">
-        <v>952</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>953</v>
-      </c>
-      <c r="C343" t="n">
-        <v>954</v>
-      </c>
-      <c r="D343" t="n">
-        <v>954</v>
-      </c>
-      <c r="E343" t="n">
-        <v>953</v>
-      </c>
-      <c r="F343" t="n">
-        <v>105.8</v>
-      </c>
-      <c r="G343" t="n">
-        <v>19050.78810762999</v>
-      </c>
-      <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>952</v>
-      </c>
-      <c r="J343" t="n">
-        <v>952</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>950</v>
-      </c>
-      <c r="C344" t="n">
-        <v>950</v>
-      </c>
-      <c r="D344" t="n">
-        <v>950</v>
-      </c>
-      <c r="E344" t="n">
-        <v>950</v>
-      </c>
-      <c r="F344" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="G344" t="n">
-        <v>19047.88810762999</v>
-      </c>
-      <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>954</v>
-      </c>
-      <c r="J344" t="n">
-        <v>952</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>952</v>
-      </c>
-      <c r="C345" t="n">
-        <v>952</v>
-      </c>
-      <c r="D345" t="n">
-        <v>952</v>
-      </c>
-      <c r="E345" t="n">
-        <v>952</v>
-      </c>
-      <c r="F345" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="G345" t="n">
-        <v>19053.98810762999</v>
-      </c>
-      <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>950</v>
-      </c>
-      <c r="J345" t="n">
-        <v>952</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>953</v>
-      </c>
-      <c r="C346" t="n">
-        <v>953</v>
-      </c>
-      <c r="D346" t="n">
-        <v>953</v>
-      </c>
-      <c r="E346" t="n">
-        <v>953</v>
-      </c>
-      <c r="F346" t="n">
-        <v>246.2</v>
-      </c>
-      <c r="G346" t="n">
-        <v>19300.18810762999</v>
-      </c>
-      <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>952</v>
-      </c>
-      <c r="J346" t="n">
-        <v>952</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>952</v>
-      </c>
-      <c r="C347" t="n">
-        <v>952</v>
-      </c>
-      <c r="D347" t="n">
-        <v>952</v>
-      </c>
-      <c r="E347" t="n">
-        <v>952</v>
-      </c>
-      <c r="F347" t="n">
-        <v>2</v>
-      </c>
-      <c r="G347" t="n">
-        <v>19298.18810762999</v>
-      </c>
-      <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>953</v>
-      </c>
-      <c r="J347" t="n">
-        <v>952</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>952</v>
-      </c>
-      <c r="C348" t="n">
-        <v>952</v>
-      </c>
-      <c r="D348" t="n">
-        <v>952</v>
-      </c>
-      <c r="E348" t="n">
-        <v>952</v>
-      </c>
-      <c r="F348" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G348" t="n">
-        <v>19298.18810762999</v>
-      </c>
-      <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>952</v>
-      </c>
-      <c r="J348" t="n">
-        <v>952</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="n">
-        <v>952</v>
-      </c>
-      <c r="C349" t="n">
-        <v>952</v>
-      </c>
-      <c r="D349" t="n">
-        <v>952</v>
-      </c>
-      <c r="E349" t="n">
-        <v>952</v>
-      </c>
-      <c r="F349" t="n">
-        <v>18</v>
-      </c>
-      <c r="G349" t="n">
-        <v>19298.18810762999</v>
-      </c>
-      <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>952</v>
-      </c>
-      <c r="J349" t="n">
-        <v>952</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>950</v>
-      </c>
-      <c r="C350" t="n">
-        <v>950</v>
-      </c>
-      <c r="D350" t="n">
-        <v>950</v>
-      </c>
-      <c r="E350" t="n">
-        <v>950</v>
-      </c>
-      <c r="F350" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="G350" t="n">
-        <v>19289.08810762999</v>
-      </c>
-      <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>952</v>
-      </c>
-      <c r="J350" t="n">
-        <v>952</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="n">
-        <v>950</v>
-      </c>
-      <c r="C351" t="n">
-        <v>950</v>
-      </c>
-      <c r="D351" t="n">
-        <v>950</v>
-      </c>
-      <c r="E351" t="n">
-        <v>950</v>
-      </c>
-      <c r="F351" t="n">
-        <v>30.4224</v>
-      </c>
-      <c r="G351" t="n">
-        <v>19289.08810762999</v>
-      </c>
-      <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>950</v>
-      </c>
-      <c r="J351" t="n">
-        <v>952</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>950</v>
-      </c>
-      <c r="C352" t="n">
-        <v>950</v>
-      </c>
-      <c r="D352" t="n">
-        <v>950</v>
-      </c>
-      <c r="E352" t="n">
-        <v>950</v>
-      </c>
-      <c r="F352" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="G352" t="n">
-        <v>19289.08810762999</v>
-      </c>
-      <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>950</v>
-      </c>
-      <c r="J352" t="n">
-        <v>952</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>950</v>
-      </c>
-      <c r="C353" t="n">
-        <v>950</v>
-      </c>
-      <c r="D353" t="n">
-        <v>950</v>
-      </c>
-      <c r="E353" t="n">
-        <v>950</v>
-      </c>
-      <c r="F353" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G353" t="n">
-        <v>19289.08810762999</v>
-      </c>
-      <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>950</v>
-      </c>
-      <c r="J353" t="n">
-        <v>952</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>950</v>
-      </c>
-      <c r="C354" t="n">
-        <v>950</v>
-      </c>
-      <c r="D354" t="n">
-        <v>950</v>
-      </c>
-      <c r="E354" t="n">
-        <v>950</v>
-      </c>
-      <c r="F354" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="G354" t="n">
-        <v>19289.08810762999</v>
-      </c>
-      <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>950</v>
-      </c>
-      <c r="J354" t="n">
-        <v>952</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>950</v>
-      </c>
-      <c r="C355" t="n">
-        <v>950</v>
-      </c>
-      <c r="D355" t="n">
-        <v>950</v>
-      </c>
-      <c r="E355" t="n">
-        <v>950</v>
-      </c>
-      <c r="F355" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="G355" t="n">
-        <v>19289.08810762999</v>
-      </c>
-      <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>950</v>
-      </c>
-      <c r="J355" t="n">
-        <v>952</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>950</v>
-      </c>
-      <c r="C356" t="n">
-        <v>950</v>
-      </c>
-      <c r="D356" t="n">
-        <v>950</v>
-      </c>
-      <c r="E356" t="n">
-        <v>950</v>
-      </c>
-      <c r="F356" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="G356" t="n">
-        <v>19289.08810762999</v>
-      </c>
-      <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>950</v>
-      </c>
-      <c r="J356" t="n">
-        <v>952</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>950</v>
-      </c>
-      <c r="C357" t="n">
-        <v>950</v>
-      </c>
-      <c r="D357" t="n">
-        <v>950</v>
-      </c>
-      <c r="E357" t="n">
-        <v>950</v>
-      </c>
-      <c r="F357" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="G357" t="n">
-        <v>19289.08810762999</v>
-      </c>
-      <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>950</v>
-      </c>
-      <c r="J357" t="n">
-        <v>952</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>950</v>
-      </c>
-      <c r="C358" t="n">
-        <v>950</v>
-      </c>
-      <c r="D358" t="n">
-        <v>950</v>
-      </c>
-      <c r="E358" t="n">
-        <v>950</v>
-      </c>
-      <c r="F358" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="G358" t="n">
-        <v>19289.08810762999</v>
-      </c>
-      <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>950</v>
-      </c>
-      <c r="J358" t="n">
-        <v>952</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>950</v>
-      </c>
-      <c r="C359" t="n">
-        <v>950</v>
-      </c>
-      <c r="D359" t="n">
-        <v>950</v>
-      </c>
-      <c r="E359" t="n">
-        <v>950</v>
-      </c>
-      <c r="F359" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="G359" t="n">
-        <v>19289.08810762999</v>
-      </c>
-      <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>950</v>
-      </c>
-      <c r="J359" t="n">
-        <v>952</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>949</v>
-      </c>
-      <c r="C360" t="n">
-        <v>949</v>
-      </c>
-      <c r="D360" t="n">
-        <v>949</v>
-      </c>
-      <c r="E360" t="n">
-        <v>949</v>
-      </c>
-      <c r="F360" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="G360" t="n">
-        <v>19273.48810762999</v>
-      </c>
-      <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>950</v>
-      </c>
-      <c r="J360" t="n">
-        <v>952</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>951</v>
-      </c>
-      <c r="C361" t="n">
-        <v>951</v>
-      </c>
-      <c r="D361" t="n">
-        <v>951</v>
-      </c>
-      <c r="E361" t="n">
-        <v>951</v>
-      </c>
-      <c r="F361" t="n">
-        <v>331</v>
-      </c>
-      <c r="G361" t="n">
-        <v>19604.48810762999</v>
-      </c>
-      <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>949</v>
-      </c>
-      <c r="J361" t="n">
-        <v>952</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>951</v>
-      </c>
-      <c r="C362" t="n">
-        <v>951</v>
-      </c>
-      <c r="D362" t="n">
-        <v>951</v>
-      </c>
-      <c r="E362" t="n">
-        <v>951</v>
-      </c>
-      <c r="F362" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="G362" t="n">
-        <v>19604.48810762999</v>
-      </c>
-      <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>951</v>
-      </c>
-      <c r="J362" t="n">
-        <v>952</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>949</v>
-      </c>
-      <c r="C363" t="n">
-        <v>949</v>
-      </c>
-      <c r="D363" t="n">
-        <v>949</v>
-      </c>
-      <c r="E363" t="n">
-        <v>949</v>
-      </c>
-      <c r="F363" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="G363" t="n">
-        <v>19587.38810762999</v>
-      </c>
-      <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>951</v>
-      </c>
-      <c r="J363" t="n">
-        <v>952</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>949</v>
-      </c>
-      <c r="C364" t="n">
-        <v>949</v>
-      </c>
-      <c r="D364" t="n">
-        <v>949</v>
-      </c>
-      <c r="E364" t="n">
-        <v>949</v>
-      </c>
-      <c r="F364" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="G364" t="n">
-        <v>19587.38810762999</v>
-      </c>
-      <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>949</v>
-      </c>
-      <c r="J364" t="n">
-        <v>952</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>949</v>
-      </c>
-      <c r="C365" t="n">
-        <v>949</v>
-      </c>
-      <c r="D365" t="n">
-        <v>949</v>
-      </c>
-      <c r="E365" t="n">
-        <v>949</v>
-      </c>
-      <c r="F365" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="G365" t="n">
-        <v>19587.38810762999</v>
-      </c>
-      <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>949</v>
-      </c>
-      <c r="J365" t="n">
-        <v>952</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>951</v>
-      </c>
-      <c r="C366" t="n">
-        <v>951</v>
-      </c>
-      <c r="D366" t="n">
-        <v>951</v>
-      </c>
-      <c r="E366" t="n">
-        <v>951</v>
-      </c>
-      <c r="F366" t="n">
-        <v>200</v>
-      </c>
-      <c r="G366" t="n">
-        <v>19787.38810762999</v>
-      </c>
-      <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>949</v>
-      </c>
-      <c r="J366" t="n">
-        <v>952</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>951</v>
-      </c>
-      <c r="C367" t="n">
-        <v>951</v>
-      </c>
-      <c r="D367" t="n">
-        <v>951</v>
-      </c>
-      <c r="E367" t="n">
-        <v>951</v>
-      </c>
-      <c r="F367" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="G367" t="n">
-        <v>19787.38810762999</v>
-      </c>
-      <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>951</v>
-      </c>
-      <c r="J367" t="n">
-        <v>952</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>951</v>
-      </c>
-      <c r="C368" t="n">
-        <v>951</v>
-      </c>
-      <c r="D368" t="n">
-        <v>951</v>
-      </c>
-      <c r="E368" t="n">
-        <v>951</v>
-      </c>
-      <c r="F368" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="G368" t="n">
-        <v>19787.38810762999</v>
-      </c>
-      <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>951</v>
-      </c>
-      <c r="J368" t="n">
-        <v>952</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>951</v>
-      </c>
-      <c r="C369" t="n">
-        <v>951</v>
-      </c>
-      <c r="D369" t="n">
-        <v>951</v>
-      </c>
-      <c r="E369" t="n">
-        <v>951</v>
-      </c>
-      <c r="F369" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="G369" t="n">
-        <v>19787.38810762999</v>
-      </c>
-      <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>951</v>
-      </c>
-      <c r="J369" t="n">
-        <v>952</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>951</v>
-      </c>
-      <c r="C370" t="n">
-        <v>951</v>
-      </c>
-      <c r="D370" t="n">
-        <v>951</v>
-      </c>
-      <c r="E370" t="n">
-        <v>951</v>
-      </c>
-      <c r="F370" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="G370" t="n">
-        <v>19787.38810762999</v>
-      </c>
-      <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>951</v>
-      </c>
-      <c r="J370" t="n">
-        <v>952</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>951</v>
-      </c>
-      <c r="C371" t="n">
-        <v>951</v>
-      </c>
-      <c r="D371" t="n">
-        <v>951</v>
-      </c>
-      <c r="E371" t="n">
-        <v>951</v>
-      </c>
-      <c r="F371" t="n">
-        <v>310.6</v>
-      </c>
-      <c r="G371" t="n">
-        <v>19787.38810762999</v>
-      </c>
-      <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>951</v>
-      </c>
-      <c r="J371" t="n">
-        <v>952</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>949</v>
-      </c>
-      <c r="C372" t="n">
-        <v>949</v>
-      </c>
-      <c r="D372" t="n">
-        <v>949</v>
-      </c>
-      <c r="E372" t="n">
-        <v>949</v>
-      </c>
-      <c r="F372" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="G372" t="n">
-        <v>19771.88810762999</v>
-      </c>
-      <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>951</v>
-      </c>
-      <c r="J372" t="n">
-        <v>952</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>949</v>
-      </c>
-      <c r="C373" t="n">
-        <v>949</v>
-      </c>
-      <c r="D373" t="n">
-        <v>949</v>
-      </c>
-      <c r="E373" t="n">
-        <v>949</v>
-      </c>
-      <c r="F373" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="G373" t="n">
-        <v>19771.88810762999</v>
-      </c>
-      <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>949</v>
-      </c>
-      <c r="J373" t="n">
-        <v>952</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>949</v>
-      </c>
-      <c r="C374" t="n">
-        <v>949</v>
-      </c>
-      <c r="D374" t="n">
-        <v>949</v>
-      </c>
-      <c r="E374" t="n">
-        <v>949</v>
-      </c>
-      <c r="F374" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="G374" t="n">
-        <v>19771.88810762999</v>
-      </c>
-      <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>949</v>
-      </c>
-      <c r="J374" t="n">
-        <v>952</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>949</v>
-      </c>
-      <c r="C375" t="n">
-        <v>949</v>
-      </c>
-      <c r="D375" t="n">
-        <v>949</v>
-      </c>
-      <c r="E375" t="n">
-        <v>949</v>
-      </c>
-      <c r="F375" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="G375" t="n">
-        <v>19771.88810762999</v>
-      </c>
-      <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>949</v>
-      </c>
-      <c r="J375" t="n">
-        <v>952</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>949</v>
-      </c>
-      <c r="C376" t="n">
-        <v>949</v>
-      </c>
-      <c r="D376" t="n">
-        <v>949</v>
-      </c>
-      <c r="E376" t="n">
-        <v>949</v>
-      </c>
-      <c r="F376" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="G376" t="n">
-        <v>19771.88810762999</v>
-      </c>
-      <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>949</v>
-      </c>
-      <c r="J376" t="n">
-        <v>952</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>949</v>
-      </c>
-      <c r="C377" t="n">
-        <v>949</v>
-      </c>
-      <c r="D377" t="n">
-        <v>949</v>
-      </c>
-      <c r="E377" t="n">
-        <v>949</v>
-      </c>
-      <c r="F377" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="G377" t="n">
-        <v>19771.88810762999</v>
-      </c>
-      <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>949</v>
-      </c>
-      <c r="J377" t="n">
-        <v>952</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>949</v>
-      </c>
-      <c r="C378" t="n">
-        <v>949</v>
-      </c>
-      <c r="D378" t="n">
-        <v>949</v>
-      </c>
-      <c r="E378" t="n">
-        <v>949</v>
-      </c>
-      <c r="F378" t="n">
-        <v>36.174</v>
-      </c>
-      <c r="G378" t="n">
-        <v>19771.88810762999</v>
-      </c>
-      <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>949</v>
-      </c>
-      <c r="J378" t="n">
-        <v>952</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>947</v>
-      </c>
-      <c r="C379" t="n">
-        <v>947</v>
-      </c>
-      <c r="D379" t="n">
-        <v>947</v>
-      </c>
-      <c r="E379" t="n">
-        <v>947</v>
-      </c>
-      <c r="F379" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G379" t="n">
-        <v>19770.08810762999</v>
-      </c>
-      <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>949</v>
-      </c>
-      <c r="J379" t="n">
-        <v>952</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
-      <c r="M379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>947</v>
-      </c>
-      <c r="C380" t="n">
-        <v>947</v>
-      </c>
-      <c r="D380" t="n">
-        <v>947</v>
-      </c>
-      <c r="E380" t="n">
-        <v>947</v>
-      </c>
-      <c r="F380" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="G380" t="n">
-        <v>19770.08810762999</v>
-      </c>
-      <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>947</v>
-      </c>
-      <c r="J380" t="n">
-        <v>952</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L380" t="n">
-        <v>1</v>
-      </c>
-      <c r="M380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>947</v>
-      </c>
-      <c r="C381" t="n">
-        <v>947</v>
-      </c>
-      <c r="D381" t="n">
-        <v>947</v>
-      </c>
-      <c r="E381" t="n">
-        <v>947</v>
-      </c>
-      <c r="F381" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="G381" t="n">
-        <v>19770.08810762999</v>
-      </c>
-      <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>947</v>
-      </c>
-      <c r="J381" t="n">
-        <v>952</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L381" t="n">
-        <v>1</v>
-      </c>
-      <c r="M381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>947</v>
-      </c>
-      <c r="C382" t="n">
-        <v>947</v>
-      </c>
-      <c r="D382" t="n">
-        <v>947</v>
-      </c>
-      <c r="E382" t="n">
-        <v>947</v>
-      </c>
-      <c r="F382" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="G382" t="n">
-        <v>19770.08810762999</v>
-      </c>
-      <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>947</v>
-      </c>
-      <c r="J382" t="n">
-        <v>952</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L382" t="n">
-        <v>1</v>
-      </c>
-      <c r="M382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>947</v>
-      </c>
-      <c r="C383" t="n">
-        <v>947</v>
-      </c>
-      <c r="D383" t="n">
-        <v>947</v>
-      </c>
-      <c r="E383" t="n">
-        <v>947</v>
-      </c>
-      <c r="F383" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="G383" t="n">
-        <v>19770.08810762999</v>
-      </c>
-      <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>947</v>
-      </c>
-      <c r="J383" t="n">
-        <v>952</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L383" t="n">
-        <v>1</v>
-      </c>
-      <c r="M383" t="inlineStr"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>947</v>
-      </c>
-      <c r="C384" t="n">
-        <v>947</v>
-      </c>
-      <c r="D384" t="n">
-        <v>947</v>
-      </c>
-      <c r="E384" t="n">
-        <v>947</v>
-      </c>
-      <c r="F384" t="n">
-        <v>1356</v>
-      </c>
-      <c r="G384" t="n">
-        <v>19770.08810762999</v>
-      </c>
-      <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>947</v>
-      </c>
-      <c r="J384" t="n">
-        <v>952</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L384" t="n">
-        <v>1</v>
-      </c>
-      <c r="M384" t="inlineStr"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="n">
-        <v>949</v>
-      </c>
-      <c r="C385" t="n">
-        <v>949</v>
-      </c>
-      <c r="D385" t="n">
-        <v>949</v>
-      </c>
-      <c r="E385" t="n">
-        <v>949</v>
-      </c>
-      <c r="F385" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="G385" t="n">
-        <v>19808.28810762999</v>
-      </c>
-      <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>947</v>
-      </c>
-      <c r="J385" t="n">
-        <v>952</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L385" t="n">
-        <v>1</v>
-      </c>
-      <c r="M385" t="inlineStr"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="n">
-        <v>949</v>
-      </c>
-      <c r="C386" t="n">
-        <v>949</v>
-      </c>
-      <c r="D386" t="n">
-        <v>949</v>
-      </c>
-      <c r="E386" t="n">
-        <v>949</v>
-      </c>
-      <c r="F386" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="G386" t="n">
-        <v>19808.28810762999</v>
-      </c>
-      <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>949</v>
-      </c>
-      <c r="J386" t="n">
-        <v>952</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L386" t="n">
-        <v>1</v>
-      </c>
-      <c r="M386" t="inlineStr"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="n">
-        <v>949</v>
-      </c>
-      <c r="C387" t="n">
-        <v>949</v>
-      </c>
-      <c r="D387" t="n">
-        <v>949</v>
-      </c>
-      <c r="E387" t="n">
-        <v>949</v>
-      </c>
-      <c r="F387" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G387" t="n">
-        <v>19808.28810762999</v>
-      </c>
-      <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>949</v>
-      </c>
-      <c r="J387" t="n">
-        <v>952</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L387" t="n">
-        <v>1</v>
-      </c>
-      <c r="M387" t="inlineStr"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="n">
-        <v>949</v>
-      </c>
-      <c r="C388" t="n">
-        <v>949</v>
-      </c>
-      <c r="D388" t="n">
-        <v>949</v>
-      </c>
-      <c r="E388" t="n">
-        <v>949</v>
-      </c>
-      <c r="F388" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="G388" t="n">
-        <v>19808.28810762999</v>
-      </c>
-      <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>949</v>
-      </c>
-      <c r="J388" t="n">
-        <v>952</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L388" t="n">
-        <v>1</v>
-      </c>
-      <c r="M388" t="inlineStr"/>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="n">
-        <v>947</v>
-      </c>
-      <c r="C389" t="n">
-        <v>949</v>
-      </c>
-      <c r="D389" t="n">
-        <v>949</v>
-      </c>
-      <c r="E389" t="n">
-        <v>947</v>
-      </c>
-      <c r="F389" t="n">
-        <v>548.5</v>
-      </c>
-      <c r="G389" t="n">
-        <v>19808.28810762999</v>
-      </c>
-      <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>949</v>
-      </c>
-      <c r="J389" t="n">
-        <v>952</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13685,7 +13481,7 @@
         <v>949</v>
       </c>
       <c r="J390" t="n">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -13726,7 +13522,7 @@
         <v>949</v>
       </c>
       <c r="J391" t="n">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -13767,7 +13563,7 @@
         <v>947</v>
       </c>
       <c r="J392" t="n">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -13808,7 +13604,7 @@
         <v>947</v>
       </c>
       <c r="J393" t="n">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -13849,7 +13645,7 @@
         <v>945</v>
       </c>
       <c r="J394" t="n">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -13890,7 +13686,7 @@
         <v>947</v>
       </c>
       <c r="J395" t="n">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -13931,7 +13727,7 @@
         <v>947</v>
       </c>
       <c r="J396" t="n">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -13972,7 +13768,7 @@
         <v>947</v>
       </c>
       <c r="J397" t="n">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -14013,7 +13809,7 @@
         <v>947</v>
       </c>
       <c r="J398" t="n">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -14054,7 +13850,7 @@
         <v>949</v>
       </c>
       <c r="J399" t="n">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -14095,7 +13891,7 @@
         <v>949</v>
       </c>
       <c r="J400" t="n">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -14136,7 +13932,7 @@
         <v>949</v>
       </c>
       <c r="J401" t="n">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -14171,21 +13967,19 @@
         <v>21318.18810762999</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
+        <v>2</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="n">
         <v>949</v>
-      </c>
-      <c r="J402" t="n">
-        <v>952</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L402" t="n">
-        <v>1</v>
+        <v>0.9971074815595363</v>
       </c>
       <c r="M402" t="inlineStr"/>
     </row>
@@ -14212,19 +14006,11 @@
         <v>21318.18810762999</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>951</v>
-      </c>
-      <c r="J403" t="n">
-        <v>952</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14253,19 +14039,11 @@
         <v>21318.18810762999</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>951</v>
-      </c>
-      <c r="J404" t="n">
-        <v>952</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14294,19 +14072,11 @@
         <v>21318.18810762999</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>951</v>
-      </c>
-      <c r="J405" t="n">
-        <v>952</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14335,19 +14105,11 @@
         <v>21318.18810762999</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>951</v>
-      </c>
-      <c r="J406" t="n">
-        <v>952</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14376,19 +14138,11 @@
         <v>21318.18810762999</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>951</v>
-      </c>
-      <c r="J407" t="n">
-        <v>952</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14417,19 +14171,11 @@
         <v>21318.18810762999</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>951</v>
-      </c>
-      <c r="J408" t="n">
-        <v>952</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14458,19 +14204,11 @@
         <v>21318.18810762999</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>951</v>
-      </c>
-      <c r="J409" t="n">
-        <v>952</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14499,19 +14237,11 @@
         <v>21598.18810762999</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>951</v>
-      </c>
-      <c r="J410" t="n">
-        <v>952</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14540,19 +14270,11 @@
         <v>21598.18810762999</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>953</v>
-      </c>
-      <c r="J411" t="n">
-        <v>952</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14581,17 +14303,11 @@
         <v>21598.18810762999</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>952</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14620,17 +14336,11 @@
         <v>21598.18810762999</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>952</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14659,17 +14369,11 @@
         <v>21598.18810762999</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>952</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14698,17 +14402,11 @@
         <v>21598.18810762999</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>952</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14737,17 +14435,11 @@
         <v>21598.18810762999</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>952</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14776,17 +14468,11 @@
         <v>20546.77740762999</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>952</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14815,19 +14501,11 @@
         <v>20546.77740762999</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>943</v>
-      </c>
-      <c r="J418" t="n">
-        <v>952</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14856,19 +14534,11 @@
         <v>21446.77740762999</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>943</v>
-      </c>
-      <c r="J419" t="n">
-        <v>952</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14897,19 +14567,11 @@
         <v>22441.37740762999</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>945</v>
-      </c>
-      <c r="J420" t="n">
-        <v>952</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14938,17 +14600,11 @@
         <v>22454.67740762999</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>952</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14977,17 +14633,11 @@
         <v>22400.79670762999</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>952</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15016,17 +14666,11 @@
         <v>22657.69670762999</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>952</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15055,17 +14699,11 @@
         <v>22647.09670762999</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>952</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15094,17 +14732,11 @@
         <v>22647.09670762999</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>952</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15133,17 +14765,11 @@
         <v>22647.09670762999</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>952</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15172,17 +14798,11 @@
         <v>22647.09670762999</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>952</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15211,17 +14831,11 @@
         <v>22647.09670762999</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>952</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15250,17 +14864,11 @@
         <v>22647.09670762999</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>952</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15289,17 +14897,11 @@
         <v>22647.09670762999</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>952</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15328,17 +14930,11 @@
         <v>22503.39670762999</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>952</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15367,17 +14963,11 @@
         <v>22936.89670762999</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>952</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15406,17 +14996,11 @@
         <v>22936.89670762999</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>952</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15445,17 +15029,11 @@
         <v>22936.89670762999</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>952</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15484,17 +15062,11 @@
         <v>22936.89670762999</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>952</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15523,17 +15095,11 @@
         <v>22936.89670762999</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>952</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15562,17 +15128,11 @@
         <v>22936.89670762999</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>952</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15601,17 +15161,11 @@
         <v>22936.89670762999</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>952</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15640,17 +15194,11 @@
         <v>23140.69670762999</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>952</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15679,17 +15227,11 @@
         <v>23140.69670762999</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>952</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15718,17 +15260,11 @@
         <v>23139.19670762999</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>952</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15757,17 +15293,11 @@
         <v>24052.69670762999</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>952</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15796,17 +15326,11 @@
         <v>24052.69670762999</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>952</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15835,17 +15359,11 @@
         <v>24051.49670762999</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>952</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15874,17 +15392,11 @@
         <v>24051.49670762999</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>952</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15913,17 +15425,11 @@
         <v>24051.49670762999</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>952</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15952,17 +15458,11 @@
         <v>24051.49670762999</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>952</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15991,17 +15491,11 @@
         <v>25160.79670762999</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>952</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16030,17 +15524,11 @@
         <v>25160.79670762999</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>952</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16069,17 +15557,11 @@
         <v>25160.79670762999</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>952</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16108,17 +15590,11 @@
         <v>25160.79670762999</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>952</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16147,17 +15623,11 @@
         <v>25139.49670762999</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>952</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16186,17 +15656,11 @@
         <v>26422.79670762999</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>952</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16225,17 +15689,11 @@
         <v>26409.89670762999</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>952</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16264,17 +15722,11 @@
         <v>26396.49670762999</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>952</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16303,17 +15755,11 @@
         <v>26396.49670762999</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>952</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16342,17 +15788,11 @@
         <v>26396.49670762999</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>952</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16381,17 +15821,11 @@
         <v>26722.49670762999</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>952</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16420,17 +15854,11 @@
         <v>27574.49670762999</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>952</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16459,17 +15887,11 @@
         <v>27068.29670762999</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>952</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16498,17 +15920,11 @@
         <v>27078.59670762999</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>952</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16537,17 +15953,11 @@
         <v>27059.19670762998</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>952</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16576,17 +15986,11 @@
         <v>27059.19670762998</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>952</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16615,17 +16019,11 @@
         <v>29065.75870762998</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>952</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16654,17 +16052,11 @@
         <v>28855.75870762998</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>952</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16693,17 +16085,11 @@
         <v>28855.75870762998</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>952</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16732,17 +16118,11 @@
         <v>28855.75870762998</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>952</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16771,17 +16151,11 @@
         <v>28838.15870762998</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>952</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16810,17 +16184,11 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>952</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16849,17 +16217,11 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>952</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16888,17 +16250,11 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>952</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16927,17 +16283,11 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>952</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16966,17 +16316,11 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>952</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17005,17 +16349,11 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>952</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17044,17 +16382,11 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>952</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17083,17 +16415,11 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>952</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17122,17 +16448,11 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>952</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17161,17 +16481,11 @@
         <v>29412.75870762998</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>952</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17200,17 +16514,11 @@
         <v>28912.75870762998</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>952</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17239,17 +16547,11 @@
         <v>28895.65870762998</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>952</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17278,17 +16580,11 @@
         <v>29175.65870762998</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>952</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17317,17 +16613,11 @@
         <v>29175.65870762998</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>952</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17356,17 +16646,11 @@
         <v>29175.65870762998</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>952</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17395,17 +16679,11 @@
         <v>29175.65870762998</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>952</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17434,17 +16712,11 @@
         <v>29175.65870762998</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>952</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17473,17 +16745,11 @@
         <v>29391.05870762999</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>952</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17512,17 +16778,11 @@
         <v>29647.05870762999</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>952</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17551,17 +16811,11 @@
         <v>29647.05870762999</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>952</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17590,17 +16844,11 @@
         <v>29631.45870762999</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>952</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17629,17 +16877,11 @@
         <v>29631.45870762999</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>952</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17668,17 +16910,11 @@
         <v>29760.45870762999</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>952</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17707,17 +16943,11 @@
         <v>29760.45870762999</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>952</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17746,17 +16976,11 @@
         <v>29741.65870762999</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>952</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17785,17 +17009,11 @@
         <v>29741.65870762999</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>952</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17824,17 +17042,11 @@
         <v>29741.65870762999</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>952</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17863,17 +17075,11 @@
         <v>30608.15870762999</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>952</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17902,17 +17108,11 @@
         <v>30601.85870762999</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>952</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17941,17 +17141,11 @@
         <v>31666.85870762999</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>952</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17980,17 +17174,11 @@
         <v>31666.85870762999</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>952</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18019,17 +17207,11 @@
         <v>31662.05870762999</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>952</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18058,17 +17240,11 @@
         <v>31662.05870762999</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>952</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18097,17 +17273,11 @@
         <v>31958.05870762999</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>952</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18136,17 +17306,11 @@
         <v>31958.05870762999</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>952</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18175,17 +17339,11 @@
         <v>31958.05870762999</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>952</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18214,17 +17372,11 @@
         <v>32282.65870762999</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>952</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18253,17 +17405,11 @@
         <v>32648.65870762999</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>952</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18292,17 +17438,11 @@
         <v>32648.65870762999</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>952</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18334,14 +17474,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>952</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18370,19 +17504,13 @@
         <v>32640.65870762999</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>952</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
-        <v>1.003403361344538</v>
+        <v>1</v>
       </c>
       <c r="M509" t="inlineStr"/>
     </row>
@@ -18442,7 +17570,7 @@
         <v>32628.55870762999</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18475,7 +17603,7 @@
         <v>32628.55870762999</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18607,7 +17735,7 @@
         <v>32743.55870762999</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18673,7 +17801,7 @@
         <v>33180.62960762999</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18706,7 +17834,7 @@
         <v>33401.83310762999</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18805,7 +17933,7 @@
         <v>33401.83310762999</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18838,7 +17966,7 @@
         <v>33401.83310762999</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18904,7 +18032,7 @@
         <v>33399.63310763</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18937,7 +18065,7 @@
         <v>34199.63310763</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19234,7 +18362,7 @@
         <v>34869.09230763</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19267,7 +18395,7 @@
         <v>34857.09230763</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19300,7 +18428,7 @@
         <v>35115.89230763001</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19333,7 +18461,7 @@
         <v>35101.49230763</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19366,7 +18494,7 @@
         <v>36116.49230763</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19399,7 +18527,7 @@
         <v>36116.49230763</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19432,7 +18560,7 @@
         <v>36251.82940763</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19465,7 +18593,7 @@
         <v>36051.82940763</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19498,7 +18626,7 @@
         <v>36466.32940763</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19531,7 +18659,7 @@
         <v>36466.32940763</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19564,7 +18692,7 @@
         <v>36875.32940763</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19597,7 +18725,7 @@
         <v>36840.92940763</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19630,7 +18758,7 @@
         <v>36840.92940763</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19663,7 +18791,7 @@
         <v>36840.92940763</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19696,7 +18824,7 @@
         <v>36831.22940763</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19729,7 +18857,7 @@
         <v>36831.22940763</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19762,7 +18890,7 @@
         <v>37242.15320763</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19795,7 +18923,7 @@
         <v>37242.15320763</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19828,7 +18956,7 @@
         <v>37503.95320763</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19861,7 +18989,7 @@
         <v>37503.95320763</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19894,7 +19022,7 @@
         <v>37503.95320763</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19927,7 +19055,7 @@
         <v>37503.95320763</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19960,7 +19088,7 @@
         <v>37494.55320763</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19993,7 +19121,7 @@
         <v>37594.55320763</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20026,7 +19154,7 @@
         <v>37589.75320763</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20059,7 +19187,7 @@
         <v>37589.75320763</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20092,7 +19220,7 @@
         <v>37575.25320763</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20125,7 +19253,7 @@
         <v>37875.25320763</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20158,7 +19286,7 @@
         <v>37660.05320763</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20191,7 +19319,7 @@
         <v>37714.35320763</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20224,7 +19352,7 @@
         <v>37698.75320763</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20257,7 +19385,7 @@
         <v>37698.75320763</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20290,7 +19418,7 @@
         <v>37998.75320763</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20323,7 +19451,7 @@
         <v>37967.12730763001</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20356,7 +19484,7 @@
         <v>38664.62730763001</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20389,7 +19517,7 @@
         <v>38593.75270763</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20422,7 +19550,7 @@
         <v>38593.75270763</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20455,7 +19583,7 @@
         <v>40036.75270763</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20488,7 +19616,7 @@
         <v>40036.75270763</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20521,7 +19649,7 @@
         <v>40026.35270763</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20554,7 +19682,7 @@
         <v>40733.55270763</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20587,7 +19715,7 @@
         <v>40724.85270763</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20620,7 +19748,7 @@
         <v>41315.85270763</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20653,7 +19781,7 @@
         <v>41634.45270763</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20686,7 +19814,7 @@
         <v>41634.45270763</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20719,7 +19847,7 @@
         <v>41634.45270763</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20752,7 +19880,7 @@
         <v>41620.25270763</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20785,7 +19913,7 @@
         <v>43042.25270763</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20818,7 +19946,7 @@
         <v>43042.25270763</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20851,7 +19979,7 @@
         <v>43042.25270763</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20884,7 +20012,7 @@
         <v>43042.25270763</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20917,7 +20045,7 @@
         <v>43042.25270763</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20950,7 +20078,7 @@
         <v>43042.25270763</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20983,7 +20111,7 @@
         <v>43042.25270763</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21016,7 +20144,7 @@
         <v>43037.75270763</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21049,7 +20177,7 @@
         <v>43037.75270763</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21082,7 +20210,7 @@
         <v>43505.55270763001</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21115,7 +20243,7 @@
         <v>43505.55270763001</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21148,7 +20276,7 @@
         <v>43505.55270763001</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21181,7 +20309,7 @@
         <v>43505.55270763001</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21214,7 +20342,7 @@
         <v>43500.85270763001</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21247,7 +20375,7 @@
         <v>43500.85270763001</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21280,7 +20408,7 @@
         <v>43500.85270763001</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21313,7 +20441,7 @@
         <v>43500.85270763001</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21346,7 +20474,7 @@
         <v>43500.85270763001</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21379,7 +20507,7 @@
         <v>43500.85270763001</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21412,7 +20540,7 @@
         <v>43500.85270763001</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21445,7 +20573,7 @@
         <v>43819.85270763001</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21478,7 +20606,7 @@
         <v>43711.95270763001</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21511,7 +20639,7 @@
         <v>43711.95270763001</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21544,7 +20672,7 @@
         <v>43579.45270763001</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21577,7 +20705,7 @@
         <v>43579.45270763001</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21610,7 +20738,7 @@
         <v>43579.45270763001</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21643,7 +20771,7 @@
         <v>44079.45270763001</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21676,7 +20804,7 @@
         <v>44079.45270763001</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21709,7 +20837,7 @@
         <v>43888.95270763001</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21742,7 +20870,7 @@
         <v>43888.95270763001</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21775,7 +20903,7 @@
         <v>43888.95270763001</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21808,7 +20936,7 @@
         <v>43888.95270763001</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21841,7 +20969,7 @@
         <v>43888.95270763001</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21874,7 +21002,7 @@
         <v>44316.25270763001</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21907,7 +21035,7 @@
         <v>44296.95270763001</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21940,7 +21068,7 @@
         <v>44296.95270763001</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21973,7 +21101,7 @@
         <v>44279.55270763001</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22006,7 +21134,7 @@
         <v>44278.25270763</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22039,7 +21167,7 @@
         <v>45396.25270763</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22072,7 +21200,7 @@
         <v>45596.55270763001</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22105,7 +21233,7 @@
         <v>45596.55270763001</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22138,7 +21266,7 @@
         <v>45596.55270763001</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22171,7 +21299,7 @@
         <v>45594.35270763001</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22204,7 +21332,7 @@
         <v>46894.35270763001</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22237,7 +21365,7 @@
         <v>47147.25270763001</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22270,7 +21398,7 @@
         <v>47128.95270763001</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22303,7 +21431,7 @@
         <v>47128.95270763001</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22336,7 +21464,7 @@
         <v>47128.95270763001</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22369,7 +21497,7 @@
         <v>47116.85270763001</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22402,7 +21530,7 @@
         <v>47116.85270763001</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22435,7 +21563,7 @@
         <v>47107.75270763001</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22468,7 +21596,7 @@
         <v>47107.75270763001</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22501,7 +21629,7 @@
         <v>47091.75270763001</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22534,7 +21662,7 @@
         <v>47091.75270763001</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22567,7 +21695,7 @@
         <v>47091.75270763001</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22600,7 +21728,7 @@
         <v>47091.75270763001</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22633,7 +21761,7 @@
         <v>47045.05470763001</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22666,7 +21794,7 @@
         <v>47045.05470763001</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22699,7 +21827,7 @@
         <v>47244.05470763001</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22732,7 +21860,7 @@
         <v>47244.05470763001</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22765,7 +21893,7 @@
         <v>47231.45470763002</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22798,7 +21926,7 @@
         <v>47231.45470763002</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22831,7 +21959,7 @@
         <v>47231.45470763002</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22864,7 +21992,7 @@
         <v>47593.55470763001</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22897,7 +22025,7 @@
         <v>47593.55470763001</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -22930,7 +22058,7 @@
         <v>48312.25470763001</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22963,7 +22091,7 @@
         <v>48312.25470763001</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22996,7 +22124,7 @@
         <v>48312.25470763001</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -23029,7 +22157,7 @@
         <v>48301.35470763001</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -23062,7 +22190,7 @@
         <v>48612.85470763001</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -23095,7 +22223,7 @@
         <v>49448.85470763001</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -23128,7 +22256,7 @@
         <v>49448.85470763001</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23161,7 +22289,7 @@
         <v>49448.85470763001</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23337,6 +22465,6 @@
       <c r="M659" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>